--- a/80.자료/web/20201204_웹_오라클_기초.xlsx
+++ b/80.자료/web/20201204_웹_오라클_기초.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00.KOSMO93\80.자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A765B6-F3AF-4264-AA01-80DA060F7CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F72A2E-5497-49BA-AF3B-0AE26D7C7D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="0" windowWidth="24030" windowHeight="15300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="300" windowWidth="17670" windowHeight="15300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JDBC" sheetId="11" r:id="rId1"/>
     <sheet name="DAO" sheetId="12" r:id="rId2"/>
     <sheet name="OSI" sheetId="18" r:id="rId3"/>
     <sheet name="WEB" sheetId="15" r:id="rId4"/>
-    <sheet name="JSP 아키텍쳐" sheetId="20" r:id="rId5"/>
-    <sheet name="DOM" sheetId="21" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="22" r:id="rId5"/>
+    <sheet name="JSP 아키텍쳐" sheetId="20" r:id="rId6"/>
+    <sheet name="DOM" sheetId="21" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="252">
   <si>
     <t>DBMS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1779,6 +1780,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2177,21 +2193,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2756,6 +2757,187 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>136890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245B1268-5C81-4E2F-9DA6-2A9389C48AF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="708932" y="223156"/>
+          <a:ext cx="8856889" cy="5832841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>69416</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{883C4F89-3905-4682-BF8F-75EC1F839C5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685799" y="6327321"/>
+          <a:ext cx="8907237" cy="5784416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>680356</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>37780</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED05B4F4-9472-4827-A615-BF5DEF1895D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680356" y="12450535"/>
+          <a:ext cx="8882424" cy="5878286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>155271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6E1E33B-E1C0-44C8-B1DC-A9809E6304A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="721179" y="18641785"/>
+          <a:ext cx="8817428" cy="5802236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4272,7 +4454,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8060,37 +8242,37 @@
     <row r="18" spans="3:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="91" t="s">
+      <c r="E18" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="92"/>
-      <c r="AA18" s="92"/>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="92"/>
-      <c r="AD18" s="92"/>
-      <c r="AE18" s="92"/>
-      <c r="AF18" s="92"/>
-      <c r="AG18" s="93"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="97"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="97"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="97"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="97"/>
+      <c r="Z18" s="97"/>
+      <c r="AA18" s="97"/>
+      <c r="AB18" s="97"/>
+      <c r="AC18" s="97"/>
+      <c r="AD18" s="97"/>
+      <c r="AE18" s="97"/>
+      <c r="AF18" s="97"/>
+      <c r="AG18" s="98"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6" t="s">
@@ -8309,370 +8491,370 @@
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="9:69" x14ac:dyDescent="0.3">
-      <c r="I1" s="105" t="s">
+      <c r="I1" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="105"/>
-      <c r="AG1" s="105"/>
-      <c r="AH1" s="105"/>
-      <c r="AI1" s="105"/>
-      <c r="AJ1" s="105"/>
-      <c r="AK1" s="105"/>
-      <c r="AL1" s="105"/>
-      <c r="AM1" s="105"/>
-      <c r="AP1" s="105" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="110"/>
+      <c r="AJ1" s="110"/>
+      <c r="AK1" s="110"/>
+      <c r="AL1" s="110"/>
+      <c r="AM1" s="110"/>
+      <c r="AP1" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="AQ1" s="105"/>
-      <c r="AR1" s="105"/>
-      <c r="AS1" s="105"/>
-      <c r="AT1" s="105"/>
-      <c r="AU1" s="105"/>
-      <c r="AV1" s="105"/>
-      <c r="AW1" s="105"/>
-      <c r="AX1" s="105"/>
-      <c r="AY1" s="105"/>
-      <c r="AZ1" s="105"/>
-      <c r="BA1" s="105"/>
-      <c r="BB1" s="105"/>
-      <c r="BC1" s="105"/>
-      <c r="BD1" s="105"/>
-      <c r="BE1" s="105"/>
-      <c r="BF1" s="105"/>
-      <c r="BG1" s="105"/>
-      <c r="BH1" s="105"/>
-      <c r="BI1" s="105"/>
-      <c r="BJ1" s="105"/>
-      <c r="BK1" s="105"/>
-      <c r="BL1" s="105"/>
-      <c r="BM1" s="105"/>
-      <c r="BN1" s="105"/>
-      <c r="BO1" s="105"/>
-      <c r="BP1" s="105"/>
-      <c r="BQ1" s="105"/>
+      <c r="AQ1" s="110"/>
+      <c r="AR1" s="110"/>
+      <c r="AS1" s="110"/>
+      <c r="AT1" s="110"/>
+      <c r="AU1" s="110"/>
+      <c r="AV1" s="110"/>
+      <c r="AW1" s="110"/>
+      <c r="AX1" s="110"/>
+      <c r="AY1" s="110"/>
+      <c r="AZ1" s="110"/>
+      <c r="BA1" s="110"/>
+      <c r="BB1" s="110"/>
+      <c r="BC1" s="110"/>
+      <c r="BD1" s="110"/>
+      <c r="BE1" s="110"/>
+      <c r="BF1" s="110"/>
+      <c r="BG1" s="110"/>
+      <c r="BH1" s="110"/>
+      <c r="BI1" s="110"/>
+      <c r="BJ1" s="110"/>
+      <c r="BK1" s="110"/>
+      <c r="BL1" s="110"/>
+      <c r="BM1" s="110"/>
+      <c r="BN1" s="110"/>
+      <c r="BO1" s="110"/>
+      <c r="BP1" s="110"/>
+      <c r="BQ1" s="110"/>
     </row>
     <row r="2" spans="9:69" x14ac:dyDescent="0.3">
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AP2" s="105"/>
-      <c r="AQ2" s="105"/>
-      <c r="AR2" s="105"/>
-      <c r="AS2" s="105"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="105"/>
-      <c r="AV2" s="105"/>
-      <c r="AW2" s="105"/>
-      <c r="AX2" s="105"/>
-      <c r="AY2" s="105"/>
-      <c r="AZ2" s="105"/>
-      <c r="BA2" s="105"/>
-      <c r="BB2" s="105"/>
-      <c r="BC2" s="105"/>
-      <c r="BD2" s="105"/>
-      <c r="BE2" s="105"/>
-      <c r="BF2" s="105"/>
-      <c r="BG2" s="105"/>
-      <c r="BH2" s="105"/>
-      <c r="BI2" s="105"/>
-      <c r="BJ2" s="105"/>
-      <c r="BK2" s="105"/>
-      <c r="BL2" s="105"/>
-      <c r="BM2" s="105"/>
-      <c r="BN2" s="105"/>
-      <c r="BO2" s="105"/>
-      <c r="BP2" s="105"/>
-      <c r="BQ2" s="105"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="110"/>
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="110"/>
+      <c r="AK2" s="110"/>
+      <c r="AL2" s="110"/>
+      <c r="AM2" s="110"/>
+      <c r="AP2" s="110"/>
+      <c r="AQ2" s="110"/>
+      <c r="AR2" s="110"/>
+      <c r="AS2" s="110"/>
+      <c r="AT2" s="110"/>
+      <c r="AU2" s="110"/>
+      <c r="AV2" s="110"/>
+      <c r="AW2" s="110"/>
+      <c r="AX2" s="110"/>
+      <c r="AY2" s="110"/>
+      <c r="AZ2" s="110"/>
+      <c r="BA2" s="110"/>
+      <c r="BB2" s="110"/>
+      <c r="BC2" s="110"/>
+      <c r="BD2" s="110"/>
+      <c r="BE2" s="110"/>
+      <c r="BF2" s="110"/>
+      <c r="BG2" s="110"/>
+      <c r="BH2" s="110"/>
+      <c r="BI2" s="110"/>
+      <c r="BJ2" s="110"/>
+      <c r="BK2" s="110"/>
+      <c r="BL2" s="110"/>
+      <c r="BM2" s="110"/>
+      <c r="BN2" s="110"/>
+      <c r="BO2" s="110"/>
+      <c r="BP2" s="110"/>
+      <c r="BQ2" s="110"/>
     </row>
     <row r="3" spans="9:69" x14ac:dyDescent="0.3">
-      <c r="I3" s="105" t="s">
+      <c r="I3" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="105"/>
-      <c r="AK3" s="105"/>
-      <c r="AL3" s="105"/>
-      <c r="AM3" s="105"/>
-      <c r="AP3" s="105" t="s">
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="110"/>
+      <c r="AK3" s="110"/>
+      <c r="AL3" s="110"/>
+      <c r="AM3" s="110"/>
+      <c r="AP3" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="AQ3" s="105"/>
-      <c r="AR3" s="105"/>
-      <c r="AS3" s="105"/>
-      <c r="AT3" s="105"/>
-      <c r="AU3" s="105"/>
-      <c r="AV3" s="105"/>
-      <c r="AW3" s="105"/>
-      <c r="AX3" s="105"/>
-      <c r="AY3" s="105"/>
-      <c r="AZ3" s="105"/>
-      <c r="BA3" s="105"/>
-      <c r="BB3" s="105"/>
-      <c r="BC3" s="105"/>
-      <c r="BD3" s="105"/>
-      <c r="BE3" s="105"/>
-      <c r="BF3" s="105"/>
-      <c r="BG3" s="105"/>
-      <c r="BH3" s="105"/>
-      <c r="BI3" s="105"/>
-      <c r="BJ3" s="105"/>
-      <c r="BK3" s="105"/>
-      <c r="BL3" s="105"/>
-      <c r="BM3" s="105"/>
-      <c r="BN3" s="105"/>
-      <c r="BO3" s="105"/>
-      <c r="BP3" s="105"/>
-      <c r="BQ3" s="105"/>
+      <c r="AQ3" s="110"/>
+      <c r="AR3" s="110"/>
+      <c r="AS3" s="110"/>
+      <c r="AT3" s="110"/>
+      <c r="AU3" s="110"/>
+      <c r="AV3" s="110"/>
+      <c r="AW3" s="110"/>
+      <c r="AX3" s="110"/>
+      <c r="AY3" s="110"/>
+      <c r="AZ3" s="110"/>
+      <c r="BA3" s="110"/>
+      <c r="BB3" s="110"/>
+      <c r="BC3" s="110"/>
+      <c r="BD3" s="110"/>
+      <c r="BE3" s="110"/>
+      <c r="BF3" s="110"/>
+      <c r="BG3" s="110"/>
+      <c r="BH3" s="110"/>
+      <c r="BI3" s="110"/>
+      <c r="BJ3" s="110"/>
+      <c r="BK3" s="110"/>
+      <c r="BL3" s="110"/>
+      <c r="BM3" s="110"/>
+      <c r="BN3" s="110"/>
+      <c r="BO3" s="110"/>
+      <c r="BP3" s="110"/>
+      <c r="BQ3" s="110"/>
     </row>
     <row r="4" spans="9:69" x14ac:dyDescent="0.3">
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105"/>
-      <c r="AI4" s="105"/>
-      <c r="AJ4" s="105"/>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="105"/>
-      <c r="AM4" s="105"/>
-      <c r="AP4" s="105"/>
-      <c r="AQ4" s="105"/>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="105"/>
-      <c r="AT4" s="105"/>
-      <c r="AU4" s="105"/>
-      <c r="AV4" s="105"/>
-      <c r="AW4" s="105"/>
-      <c r="AX4" s="105"/>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="105"/>
-      <c r="BA4" s="105"/>
-      <c r="BB4" s="105"/>
-      <c r="BC4" s="105"/>
-      <c r="BD4" s="105"/>
-      <c r="BE4" s="105"/>
-      <c r="BF4" s="105"/>
-      <c r="BG4" s="105"/>
-      <c r="BH4" s="105"/>
-      <c r="BI4" s="105"/>
-      <c r="BJ4" s="105"/>
-      <c r="BK4" s="105"/>
-      <c r="BL4" s="105"/>
-      <c r="BM4" s="105"/>
-      <c r="BN4" s="105"/>
-      <c r="BO4" s="105"/>
-      <c r="BP4" s="105"/>
-      <c r="BQ4" s="105"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="110"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="110"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="110"/>
+      <c r="AG4" s="110"/>
+      <c r="AH4" s="110"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="110"/>
+      <c r="AL4" s="110"/>
+      <c r="AM4" s="110"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="110"/>
+      <c r="AS4" s="110"/>
+      <c r="AT4" s="110"/>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="110"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="110"/>
+      <c r="AY4" s="110"/>
+      <c r="AZ4" s="110"/>
+      <c r="BA4" s="110"/>
+      <c r="BB4" s="110"/>
+      <c r="BC4" s="110"/>
+      <c r="BD4" s="110"/>
+      <c r="BE4" s="110"/>
+      <c r="BF4" s="110"/>
+      <c r="BG4" s="110"/>
+      <c r="BH4" s="110"/>
+      <c r="BI4" s="110"/>
+      <c r="BJ4" s="110"/>
+      <c r="BK4" s="110"/>
+      <c r="BL4" s="110"/>
+      <c r="BM4" s="110"/>
+      <c r="BN4" s="110"/>
+      <c r="BO4" s="110"/>
+      <c r="BP4" s="110"/>
+      <c r="BQ4" s="110"/>
     </row>
     <row r="5" spans="9:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB5" s="98" t="s">
+      <c r="AB5" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="98"/>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="98"/>
-      <c r="AL5" s="98"/>
-      <c r="AM5" s="98"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
     </row>
     <row r="6" spans="9:69" x14ac:dyDescent="0.3">
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="96"/>
-      <c r="AB6" s="94" t="s">
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="101"/>
+      <c r="AB6" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="AC6" s="95"/>
-      <c r="AD6" s="95"/>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="95"/>
-      <c r="AG6" s="95"/>
-      <c r="AH6" s="95"/>
-      <c r="AI6" s="95"/>
-      <c r="AJ6" s="95"/>
-      <c r="AK6" s="95"/>
-      <c r="AL6" s="95"/>
-      <c r="AM6" s="96"/>
-      <c r="AT6" s="94" t="s">
+      <c r="AC6" s="100"/>
+      <c r="AD6" s="100"/>
+      <c r="AE6" s="100"/>
+      <c r="AF6" s="100"/>
+      <c r="AG6" s="100"/>
+      <c r="AH6" s="100"/>
+      <c r="AI6" s="100"/>
+      <c r="AJ6" s="100"/>
+      <c r="AK6" s="100"/>
+      <c r="AL6" s="100"/>
+      <c r="AM6" s="101"/>
+      <c r="AT6" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="AU6" s="95"/>
-      <c r="AV6" s="95"/>
-      <c r="AW6" s="95"/>
-      <c r="AX6" s="95"/>
-      <c r="AY6" s="95"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="95"/>
-      <c r="BB6" s="95"/>
-      <c r="BC6" s="95"/>
-      <c r="BD6" s="95"/>
-      <c r="BE6" s="96"/>
+      <c r="AU6" s="100"/>
+      <c r="AV6" s="100"/>
+      <c r="AW6" s="100"/>
+      <c r="AX6" s="100"/>
+      <c r="AY6" s="100"/>
+      <c r="AZ6" s="100"/>
+      <c r="BA6" s="100"/>
+      <c r="BB6" s="100"/>
+      <c r="BC6" s="100"/>
+      <c r="BD6" s="100"/>
+      <c r="BE6" s="101"/>
     </row>
     <row r="7" spans="9:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I7" s="97"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="99"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="99"/>
-      <c r="AT7" s="97"/>
-      <c r="AU7" s="98"/>
-      <c r="AV7" s="98"/>
-      <c r="AW7" s="98"/>
-      <c r="AX7" s="98"/>
-      <c r="AY7" s="98"/>
-      <c r="AZ7" s="98"/>
-      <c r="BA7" s="98"/>
-      <c r="BB7" s="98"/>
-      <c r="BC7" s="98"/>
-      <c r="BD7" s="98"/>
-      <c r="BE7" s="99"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="104"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="103"/>
+      <c r="AE7" s="103"/>
+      <c r="AF7" s="103"/>
+      <c r="AG7" s="103"/>
+      <c r="AH7" s="103"/>
+      <c r="AI7" s="103"/>
+      <c r="AJ7" s="103"/>
+      <c r="AK7" s="103"/>
+      <c r="AL7" s="103"/>
+      <c r="AM7" s="104"/>
+      <c r="AT7" s="102"/>
+      <c r="AU7" s="103"/>
+      <c r="AV7" s="103"/>
+      <c r="AW7" s="103"/>
+      <c r="AX7" s="103"/>
+      <c r="AY7" s="103"/>
+      <c r="AZ7" s="103"/>
+      <c r="BA7" s="103"/>
+      <c r="BB7" s="103"/>
+      <c r="BC7" s="103"/>
+      <c r="BD7" s="103"/>
+      <c r="BE7" s="104"/>
     </row>
     <row r="8" spans="9:69" x14ac:dyDescent="0.3">
-      <c r="I8" s="103" t="s">
+      <c r="I8" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="96"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="101"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
@@ -8699,20 +8881,20 @@
       <c r="BE8" s="4"/>
     </row>
     <row r="9" spans="9:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I9" s="104" t="s">
+      <c r="I9" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="99"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="103"/>
+      <c r="T9" s="104"/>
       <c r="V9" s="14" t="s">
         <v>31</v>
       </c>
@@ -8745,18 +8927,18 @@
       <c r="BE9" s="10"/>
     </row>
     <row r="10" spans="9:69" x14ac:dyDescent="0.3">
-      <c r="I10" s="94"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="96"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="101"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
@@ -8783,188 +8965,188 @@
       <c r="BE10" s="4"/>
     </row>
     <row r="11" spans="9:69" x14ac:dyDescent="0.3">
-      <c r="I11" s="100" t="s">
+      <c r="I11" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="102"/>
-      <c r="AB11" s="100" t="s">
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="107"/>
+      <c r="AB11" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="AC11" s="101"/>
-      <c r="AD11" s="101"/>
-      <c r="AE11" s="101"/>
-      <c r="AF11" s="101"/>
-      <c r="AG11" s="101"/>
-      <c r="AH11" s="101"/>
-      <c r="AI11" s="101"/>
-      <c r="AJ11" s="101"/>
-      <c r="AK11" s="101"/>
-      <c r="AL11" s="101"/>
-      <c r="AM11" s="102"/>
-      <c r="AT11" s="107"/>
-      <c r="AU11" s="108"/>
-      <c r="AV11" s="108"/>
-      <c r="AW11" s="108"/>
-      <c r="AX11" s="108"/>
-      <c r="AY11" s="108"/>
-      <c r="AZ11" s="108"/>
-      <c r="BA11" s="108"/>
-      <c r="BB11" s="108"/>
-      <c r="BC11" s="108"/>
-      <c r="BD11" s="108"/>
-      <c r="BE11" s="109"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="106"/>
+      <c r="AG11" s="106"/>
+      <c r="AH11" s="106"/>
+      <c r="AI11" s="106"/>
+      <c r="AJ11" s="106"/>
+      <c r="AK11" s="106"/>
+      <c r="AL11" s="106"/>
+      <c r="AM11" s="107"/>
+      <c r="AT11" s="112"/>
+      <c r="AU11" s="113"/>
+      <c r="AV11" s="113"/>
+      <c r="AW11" s="113"/>
+      <c r="AX11" s="113"/>
+      <c r="AY11" s="113"/>
+      <c r="AZ11" s="113"/>
+      <c r="BA11" s="113"/>
+      <c r="BB11" s="113"/>
+      <c r="BC11" s="113"/>
+      <c r="BD11" s="113"/>
+      <c r="BE11" s="114"/>
     </row>
     <row r="12" spans="9:69" x14ac:dyDescent="0.3">
-      <c r="I12" s="100" t="s">
+      <c r="I12" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="102"/>
-      <c r="AB12" s="100" t="s">
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="107"/>
+      <c r="AB12" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="AC12" s="101"/>
-      <c r="AD12" s="101"/>
-      <c r="AE12" s="101"/>
-      <c r="AF12" s="101"/>
-      <c r="AG12" s="101"/>
-      <c r="AH12" s="101"/>
-      <c r="AI12" s="101"/>
-      <c r="AJ12" s="101"/>
-      <c r="AK12" s="101"/>
-      <c r="AL12" s="101"/>
-      <c r="AM12" s="102"/>
-      <c r="AT12" s="110" t="s">
+      <c r="AC12" s="106"/>
+      <c r="AD12" s="106"/>
+      <c r="AE12" s="106"/>
+      <c r="AF12" s="106"/>
+      <c r="AG12" s="106"/>
+      <c r="AH12" s="106"/>
+      <c r="AI12" s="106"/>
+      <c r="AJ12" s="106"/>
+      <c r="AK12" s="106"/>
+      <c r="AL12" s="106"/>
+      <c r="AM12" s="107"/>
+      <c r="AT12" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="AU12" s="108"/>
-      <c r="AV12" s="108"/>
-      <c r="AW12" s="108"/>
-      <c r="AX12" s="108"/>
-      <c r="AY12" s="108"/>
-      <c r="AZ12" s="108"/>
-      <c r="BA12" s="108"/>
-      <c r="BB12" s="108"/>
-      <c r="BC12" s="108"/>
-      <c r="BD12" s="108"/>
-      <c r="BE12" s="109"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="113"/>
+      <c r="AW12" s="113"/>
+      <c r="AX12" s="113"/>
+      <c r="AY12" s="113"/>
+      <c r="AZ12" s="113"/>
+      <c r="BA12" s="113"/>
+      <c r="BB12" s="113"/>
+      <c r="BC12" s="113"/>
+      <c r="BD12" s="113"/>
+      <c r="BE12" s="114"/>
     </row>
     <row r="13" spans="9:69" x14ac:dyDescent="0.3">
-      <c r="I13" s="100" t="s">
+      <c r="I13" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="102"/>
-      <c r="AB13" s="100" t="s">
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="107"/>
+      <c r="AB13" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="101"/>
-      <c r="AE13" s="101"/>
-      <c r="AF13" s="101"/>
-      <c r="AG13" s="101"/>
-      <c r="AH13" s="101"/>
-      <c r="AI13" s="101"/>
-      <c r="AJ13" s="101"/>
-      <c r="AK13" s="101"/>
-      <c r="AL13" s="101"/>
-      <c r="AM13" s="102"/>
-      <c r="AT13" s="107"/>
-      <c r="AU13" s="108"/>
-      <c r="AV13" s="108"/>
-      <c r="AW13" s="108"/>
-      <c r="AX13" s="108"/>
-      <c r="AY13" s="108"/>
-      <c r="AZ13" s="108"/>
-      <c r="BA13" s="108"/>
-      <c r="BB13" s="108"/>
-      <c r="BC13" s="108"/>
-      <c r="BD13" s="108"/>
-      <c r="BE13" s="109"/>
+      <c r="AC13" s="106"/>
+      <c r="AD13" s="106"/>
+      <c r="AE13" s="106"/>
+      <c r="AF13" s="106"/>
+      <c r="AG13" s="106"/>
+      <c r="AH13" s="106"/>
+      <c r="AI13" s="106"/>
+      <c r="AJ13" s="106"/>
+      <c r="AK13" s="106"/>
+      <c r="AL13" s="106"/>
+      <c r="AM13" s="107"/>
+      <c r="AT13" s="112"/>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="113"/>
+      <c r="AW13" s="113"/>
+      <c r="AX13" s="113"/>
+      <c r="AY13" s="113"/>
+      <c r="AZ13" s="113"/>
+      <c r="BA13" s="113"/>
+      <c r="BB13" s="113"/>
+      <c r="BC13" s="113"/>
+      <c r="BD13" s="113"/>
+      <c r="BE13" s="114"/>
     </row>
     <row r="14" spans="9:69" x14ac:dyDescent="0.3">
-      <c r="I14" s="100" t="s">
+      <c r="I14" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="102"/>
-      <c r="AB14" s="100" t="s">
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="107"/>
+      <c r="AB14" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="AC14" s="101"/>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="101"/>
-      <c r="AF14" s="101"/>
-      <c r="AG14" s="101"/>
-      <c r="AH14" s="101"/>
-      <c r="AI14" s="101"/>
-      <c r="AJ14" s="101"/>
-      <c r="AK14" s="101"/>
-      <c r="AL14" s="101"/>
-      <c r="AM14" s="102"/>
-      <c r="AT14" s="107"/>
-      <c r="AU14" s="108"/>
-      <c r="AV14" s="108"/>
-      <c r="AW14" s="108"/>
-      <c r="AX14" s="108"/>
-      <c r="AY14" s="108"/>
-      <c r="AZ14" s="108"/>
-      <c r="BA14" s="108"/>
-      <c r="BB14" s="108"/>
-      <c r="BC14" s="108"/>
-      <c r="BD14" s="108"/>
-      <c r="BE14" s="109"/>
+      <c r="AC14" s="106"/>
+      <c r="AD14" s="106"/>
+      <c r="AE14" s="106"/>
+      <c r="AF14" s="106"/>
+      <c r="AG14" s="106"/>
+      <c r="AH14" s="106"/>
+      <c r="AI14" s="106"/>
+      <c r="AJ14" s="106"/>
+      <c r="AK14" s="106"/>
+      <c r="AL14" s="106"/>
+      <c r="AM14" s="107"/>
+      <c r="AT14" s="112"/>
+      <c r="AU14" s="113"/>
+      <c r="AV14" s="113"/>
+      <c r="AW14" s="113"/>
+      <c r="AX14" s="113"/>
+      <c r="AY14" s="113"/>
+      <c r="AZ14" s="113"/>
+      <c r="BA14" s="113"/>
+      <c r="BB14" s="113"/>
+      <c r="BC14" s="113"/>
+      <c r="BD14" s="113"/>
+      <c r="BE14" s="114"/>
     </row>
     <row r="15" spans="9:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I15" s="97"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="99"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="104"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -8977,20 +9159,20 @@
       <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="10"/>
-      <c r="AT15" s="104" t="s">
+      <c r="AT15" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="AU15" s="98"/>
-      <c r="AV15" s="98"/>
-      <c r="AW15" s="98"/>
-      <c r="AX15" s="98"/>
-      <c r="AY15" s="98"/>
-      <c r="AZ15" s="98"/>
-      <c r="BA15" s="98"/>
-      <c r="BB15" s="98"/>
-      <c r="BC15" s="98"/>
-      <c r="BD15" s="98"/>
-      <c r="BE15" s="99"/>
+      <c r="AU15" s="103"/>
+      <c r="AV15" s="103"/>
+      <c r="AW15" s="103"/>
+      <c r="AX15" s="103"/>
+      <c r="AY15" s="103"/>
+      <c r="AZ15" s="103"/>
+      <c r="BA15" s="103"/>
+      <c r="BB15" s="103"/>
+      <c r="BC15" s="103"/>
+      <c r="BD15" s="103"/>
+      <c r="BE15" s="104"/>
     </row>
     <row r="17" spans="9:39" x14ac:dyDescent="0.3">
       <c r="AH17" s="14" t="s">
@@ -8999,60 +9181,60 @@
     </row>
     <row r="18" spans="9:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I19" s="94" t="s">
+      <c r="I19" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="96"/>
-      <c r="AB19" s="94" t="s">
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="100"/>
+      <c r="S19" s="100"/>
+      <c r="T19" s="101"/>
+      <c r="AB19" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="95"/>
-      <c r="AJ19" s="95"/>
-      <c r="AK19" s="95"/>
-      <c r="AL19" s="95"/>
-      <c r="AM19" s="96"/>
+      <c r="AC19" s="100"/>
+      <c r="AD19" s="100"/>
+      <c r="AE19" s="100"/>
+      <c r="AF19" s="100"/>
+      <c r="AG19" s="100"/>
+      <c r="AH19" s="100"/>
+      <c r="AI19" s="100"/>
+      <c r="AJ19" s="100"/>
+      <c r="AK19" s="100"/>
+      <c r="AL19" s="100"/>
+      <c r="AM19" s="101"/>
     </row>
     <row r="20" spans="9:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I20" s="97"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="99"/>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="98"/>
-      <c r="AD20" s="98"/>
-      <c r="AE20" s="98"/>
-      <c r="AF20" s="98"/>
-      <c r="AG20" s="98"/>
-      <c r="AH20" s="98"/>
-      <c r="AI20" s="98"/>
-      <c r="AJ20" s="98"/>
-      <c r="AK20" s="98"/>
-      <c r="AL20" s="98"/>
-      <c r="AM20" s="99"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="104"/>
+      <c r="AB20" s="102"/>
+      <c r="AC20" s="103"/>
+      <c r="AD20" s="103"/>
+      <c r="AE20" s="103"/>
+      <c r="AF20" s="103"/>
+      <c r="AG20" s="103"/>
+      <c r="AH20" s="103"/>
+      <c r="AI20" s="103"/>
+      <c r="AJ20" s="103"/>
+      <c r="AK20" s="103"/>
+      <c r="AL20" s="103"/>
+      <c r="AM20" s="104"/>
     </row>
     <row r="21" spans="9:39" x14ac:dyDescent="0.3">
       <c r="I21" s="5"/>
@@ -9136,124 +9318,124 @@
       <c r="AM23" s="7"/>
     </row>
     <row r="24" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I24" s="106" t="s">
+      <c r="I24" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="102"/>
-      <c r="AB24" s="100" t="s">
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="107"/>
+      <c r="AB24" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="101"/>
-      <c r="AE24" s="101"/>
-      <c r="AF24" s="101"/>
-      <c r="AG24" s="101"/>
-      <c r="AH24" s="101"/>
-      <c r="AI24" s="101"/>
-      <c r="AJ24" s="101"/>
-      <c r="AK24" s="101"/>
-      <c r="AL24" s="101"/>
-      <c r="AM24" s="102"/>
+      <c r="AC24" s="106"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="106"/>
+      <c r="AH24" s="106"/>
+      <c r="AI24" s="106"/>
+      <c r="AJ24" s="106"/>
+      <c r="AK24" s="106"/>
+      <c r="AL24" s="106"/>
+      <c r="AM24" s="107"/>
     </row>
     <row r="25" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I25" s="106" t="s">
+      <c r="I25" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="102"/>
-      <c r="AB25" s="100" t="s">
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="106"/>
+      <c r="T25" s="107"/>
+      <c r="AB25" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="AC25" s="101"/>
-      <c r="AD25" s="101"/>
-      <c r="AE25" s="101"/>
-      <c r="AF25" s="101"/>
-      <c r="AG25" s="101"/>
-      <c r="AH25" s="101"/>
-      <c r="AI25" s="101"/>
-      <c r="AJ25" s="101"/>
-      <c r="AK25" s="101"/>
-      <c r="AL25" s="101"/>
-      <c r="AM25" s="102"/>
+      <c r="AC25" s="106"/>
+      <c r="AD25" s="106"/>
+      <c r="AE25" s="106"/>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="106"/>
+      <c r="AH25" s="106"/>
+      <c r="AI25" s="106"/>
+      <c r="AJ25" s="106"/>
+      <c r="AK25" s="106"/>
+      <c r="AL25" s="106"/>
+      <c r="AM25" s="107"/>
     </row>
     <row r="26" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I26" s="106" t="s">
+      <c r="I26" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="102"/>
-      <c r="AB26" s="100" t="s">
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="106"/>
+      <c r="T26" s="107"/>
+      <c r="AB26" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="AC26" s="101"/>
-      <c r="AD26" s="101"/>
-      <c r="AE26" s="101"/>
-      <c r="AF26" s="101"/>
-      <c r="AG26" s="101"/>
-      <c r="AH26" s="101"/>
-      <c r="AI26" s="101"/>
-      <c r="AJ26" s="101"/>
-      <c r="AK26" s="101"/>
-      <c r="AL26" s="101"/>
-      <c r="AM26" s="102"/>
+      <c r="AC26" s="106"/>
+      <c r="AD26" s="106"/>
+      <c r="AE26" s="106"/>
+      <c r="AF26" s="106"/>
+      <c r="AG26" s="106"/>
+      <c r="AH26" s="106"/>
+      <c r="AI26" s="106"/>
+      <c r="AJ26" s="106"/>
+      <c r="AK26" s="106"/>
+      <c r="AL26" s="106"/>
+      <c r="AM26" s="107"/>
     </row>
     <row r="27" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I27" s="106" t="s">
+      <c r="I27" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="102"/>
-      <c r="AB27" s="100" t="s">
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="106"/>
+      <c r="S27" s="106"/>
+      <c r="T27" s="107"/>
+      <c r="AB27" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="AC27" s="101"/>
-      <c r="AD27" s="101"/>
-      <c r="AE27" s="101"/>
-      <c r="AF27" s="101"/>
-      <c r="AG27" s="101"/>
-      <c r="AH27" s="101"/>
-      <c r="AI27" s="101"/>
-      <c r="AJ27" s="101"/>
-      <c r="AK27" s="101"/>
-      <c r="AL27" s="101"/>
-      <c r="AM27" s="102"/>
+      <c r="AC27" s="106"/>
+      <c r="AD27" s="106"/>
+      <c r="AE27" s="106"/>
+      <c r="AF27" s="106"/>
+      <c r="AG27" s="106"/>
+      <c r="AH27" s="106"/>
+      <c r="AI27" s="106"/>
+      <c r="AJ27" s="106"/>
+      <c r="AK27" s="106"/>
+      <c r="AL27" s="106"/>
+      <c r="AM27" s="107"/>
     </row>
     <row r="28" spans="9:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I28" s="8"/>
@@ -9337,46 +9519,46 @@
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="4:54" x14ac:dyDescent="0.3">
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="141" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
     </row>
     <row r="3" spans="4:54" x14ac:dyDescent="0.3">
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="141"/>
+      <c r="Y3" s="141"/>
     </row>
     <row r="4" spans="4:54" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
@@ -9388,207 +9570,207 @@
     </row>
     <row r="5" spans="4:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="4:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="132"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="137"/>
       <c r="N6" s="31" t="s">
         <v>134</v>
       </c>
       <c r="AM6" t="s">
         <v>134</v>
       </c>
-      <c r="AT6" s="130" t="s">
+      <c r="AT6" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="AU6" s="131"/>
-      <c r="AV6" s="131"/>
-      <c r="AW6" s="131"/>
-      <c r="AX6" s="131"/>
-      <c r="AY6" s="131"/>
-      <c r="AZ6" s="131"/>
-      <c r="BA6" s="131"/>
-      <c r="BB6" s="132"/>
+      <c r="AU6" s="136"/>
+      <c r="AV6" s="136"/>
+      <c r="AW6" s="136"/>
+      <c r="AX6" s="136"/>
+      <c r="AY6" s="136"/>
+      <c r="AZ6" s="136"/>
+      <c r="BA6" s="136"/>
+      <c r="BB6" s="137"/>
     </row>
     <row r="7" spans="4:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="133"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="135"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="140"/>
       <c r="T7" s="32"/>
       <c r="AD7" s="32"/>
-      <c r="AT7" s="133"/>
-      <c r="AU7" s="134"/>
-      <c r="AV7" s="134"/>
-      <c r="AW7" s="134"/>
-      <c r="AX7" s="134"/>
-      <c r="AY7" s="134"/>
-      <c r="AZ7" s="134"/>
-      <c r="BA7" s="134"/>
-      <c r="BB7" s="135"/>
+      <c r="AT7" s="138"/>
+      <c r="AU7" s="139"/>
+      <c r="AV7" s="139"/>
+      <c r="AW7" s="139"/>
+      <c r="AX7" s="139"/>
+      <c r="AY7" s="139"/>
+      <c r="AZ7" s="139"/>
+      <c r="BA7" s="139"/>
+      <c r="BB7" s="140"/>
     </row>
     <row r="8" spans="4:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="130" t="s">
+      <c r="D8" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="132"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="137"/>
       <c r="N8" s="31" t="s">
         <v>136</v>
       </c>
       <c r="AM8" t="s">
         <v>136</v>
       </c>
-      <c r="AT8" s="130" t="s">
+      <c r="AT8" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="AU8" s="131"/>
-      <c r="AV8" s="131"/>
-      <c r="AW8" s="131"/>
-      <c r="AX8" s="131"/>
-      <c r="AY8" s="131"/>
-      <c r="AZ8" s="131"/>
-      <c r="BA8" s="131"/>
-      <c r="BB8" s="132"/>
+      <c r="AU8" s="136"/>
+      <c r="AV8" s="136"/>
+      <c r="AW8" s="136"/>
+      <c r="AX8" s="136"/>
+      <c r="AY8" s="136"/>
+      <c r="AZ8" s="136"/>
+      <c r="BA8" s="136"/>
+      <c r="BB8" s="137"/>
     </row>
     <row r="9" spans="4:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="135"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="140"/>
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
       <c r="AD9" s="32"/>
       <c r="AE9" s="32"/>
-      <c r="AT9" s="133"/>
-      <c r="AU9" s="134"/>
-      <c r="AV9" s="134"/>
-      <c r="AW9" s="134"/>
-      <c r="AX9" s="134"/>
-      <c r="AY9" s="134"/>
-      <c r="AZ9" s="134"/>
-      <c r="BA9" s="134"/>
-      <c r="BB9" s="135"/>
+      <c r="AT9" s="138"/>
+      <c r="AU9" s="139"/>
+      <c r="AV9" s="139"/>
+      <c r="AW9" s="139"/>
+      <c r="AX9" s="139"/>
+      <c r="AY9" s="139"/>
+      <c r="AZ9" s="139"/>
+      <c r="BA9" s="139"/>
+      <c r="BB9" s="140"/>
     </row>
     <row r="10" spans="4:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="130" t="s">
+      <c r="D10" s="135" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="132"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="137"/>
       <c r="N10" s="31" t="s">
         <v>138</v>
       </c>
       <c r="AM10" t="s">
         <v>138</v>
       </c>
-      <c r="AT10" s="130" t="s">
+      <c r="AT10" s="135" t="s">
         <v>137</v>
       </c>
-      <c r="AU10" s="131"/>
-      <c r="AV10" s="131"/>
-      <c r="AW10" s="131"/>
-      <c r="AX10" s="131"/>
-      <c r="AY10" s="131"/>
-      <c r="AZ10" s="131"/>
-      <c r="BA10" s="131"/>
-      <c r="BB10" s="132"/>
+      <c r="AU10" s="136"/>
+      <c r="AV10" s="136"/>
+      <c r="AW10" s="136"/>
+      <c r="AX10" s="136"/>
+      <c r="AY10" s="136"/>
+      <c r="AZ10" s="136"/>
+      <c r="BA10" s="136"/>
+      <c r="BB10" s="137"/>
     </row>
     <row r="11" spans="4:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="135"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="140"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
       <c r="V11" s="32"/>
       <c r="AD11" s="32"/>
       <c r="AE11" s="32"/>
       <c r="AF11" s="32"/>
-      <c r="AT11" s="133"/>
-      <c r="AU11" s="134"/>
-      <c r="AV11" s="134"/>
-      <c r="AW11" s="134"/>
-      <c r="AX11" s="134"/>
-      <c r="AY11" s="134"/>
-      <c r="AZ11" s="134"/>
-      <c r="BA11" s="134"/>
-      <c r="BB11" s="135"/>
+      <c r="AT11" s="138"/>
+      <c r="AU11" s="139"/>
+      <c r="AV11" s="139"/>
+      <c r="AW11" s="139"/>
+      <c r="AX11" s="139"/>
+      <c r="AY11" s="139"/>
+      <c r="AZ11" s="139"/>
+      <c r="BA11" s="139"/>
+      <c r="BB11" s="140"/>
     </row>
     <row r="12" spans="4:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="117" t="s">
+      <c r="D12" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="119"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="124"/>
       <c r="N12" s="31" t="s">
         <v>140</v>
       </c>
       <c r="AM12" t="s">
         <v>140</v>
       </c>
-      <c r="AT12" s="117" t="s">
+      <c r="AT12" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="AU12" s="118"/>
-      <c r="AV12" s="118"/>
-      <c r="AW12" s="118"/>
-      <c r="AX12" s="118"/>
-      <c r="AY12" s="118"/>
-      <c r="AZ12" s="118"/>
-      <c r="BA12" s="118"/>
-      <c r="BB12" s="119"/>
+      <c r="AU12" s="123"/>
+      <c r="AV12" s="123"/>
+      <c r="AW12" s="123"/>
+      <c r="AX12" s="123"/>
+      <c r="AY12" s="123"/>
+      <c r="AZ12" s="123"/>
+      <c r="BA12" s="123"/>
+      <c r="BB12" s="124"/>
     </row>
     <row r="13" spans="4:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="122"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="127"/>
       <c r="T13" s="32"/>
       <c r="U13" s="32"/>
       <c r="V13" s="32"/>
@@ -9597,56 +9779,56 @@
       <c r="AE13" s="32"/>
       <c r="AF13" s="32"/>
       <c r="AG13" s="32"/>
-      <c r="AT13" s="120"/>
-      <c r="AU13" s="121"/>
-      <c r="AV13" s="121"/>
-      <c r="AW13" s="121"/>
-      <c r="AX13" s="121"/>
-      <c r="AY13" s="121"/>
-      <c r="AZ13" s="121"/>
-      <c r="BA13" s="121"/>
-      <c r="BB13" s="122"/>
+      <c r="AT13" s="125"/>
+      <c r="AU13" s="126"/>
+      <c r="AV13" s="126"/>
+      <c r="AW13" s="126"/>
+      <c r="AX13" s="126"/>
+      <c r="AY13" s="126"/>
+      <c r="AZ13" s="126"/>
+      <c r="BA13" s="126"/>
+      <c r="BB13" s="127"/>
     </row>
     <row r="14" spans="4:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="123" t="s">
+      <c r="D14" s="128" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="125"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="130"/>
       <c r="N14" t="s">
         <v>142</v>
       </c>
       <c r="AM14" t="s">
         <v>142</v>
       </c>
-      <c r="AT14" s="123" t="s">
+      <c r="AT14" s="128" t="s">
         <v>141</v>
       </c>
-      <c r="AU14" s="124"/>
-      <c r="AV14" s="124"/>
-      <c r="AW14" s="124"/>
-      <c r="AX14" s="124"/>
-      <c r="AY14" s="124"/>
-      <c r="AZ14" s="124"/>
-      <c r="BA14" s="124"/>
-      <c r="BB14" s="125"/>
+      <c r="AU14" s="129"/>
+      <c r="AV14" s="129"/>
+      <c r="AW14" s="129"/>
+      <c r="AX14" s="129"/>
+      <c r="AY14" s="129"/>
+      <c r="AZ14" s="129"/>
+      <c r="BA14" s="129"/>
+      <c r="BB14" s="130"/>
     </row>
     <row r="15" spans="4:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="126"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="128"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="133"/>
       <c r="N15" s="31" t="s">
         <v>143</v>
       </c>
@@ -9663,56 +9845,56 @@
       <c r="AM15" t="s">
         <v>143</v>
       </c>
-      <c r="AT15" s="126"/>
-      <c r="AU15" s="127"/>
-      <c r="AV15" s="127"/>
-      <c r="AW15" s="127"/>
-      <c r="AX15" s="127"/>
-      <c r="AY15" s="127"/>
-      <c r="AZ15" s="127"/>
-      <c r="BA15" s="127"/>
-      <c r="BB15" s="128"/>
+      <c r="AT15" s="131"/>
+      <c r="AU15" s="132"/>
+      <c r="AV15" s="132"/>
+      <c r="AW15" s="132"/>
+      <c r="AX15" s="132"/>
+      <c r="AY15" s="132"/>
+      <c r="AZ15" s="132"/>
+      <c r="BA15" s="132"/>
+      <c r="BB15" s="133"/>
     </row>
     <row r="16" spans="4:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="129" t="s">
+      <c r="D16" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="113"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="118"/>
       <c r="N16" t="s">
         <v>145</v>
       </c>
       <c r="AM16" t="s">
         <v>145</v>
       </c>
-      <c r="AT16" s="129" t="s">
+      <c r="AT16" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="AU16" s="112"/>
-      <c r="AV16" s="112"/>
-      <c r="AW16" s="112"/>
-      <c r="AX16" s="112"/>
-      <c r="AY16" s="112"/>
-      <c r="AZ16" s="112"/>
-      <c r="BA16" s="112"/>
-      <c r="BB16" s="113"/>
+      <c r="AU16" s="117"/>
+      <c r="AV16" s="117"/>
+      <c r="AW16" s="117"/>
+      <c r="AX16" s="117"/>
+      <c r="AY16" s="117"/>
+      <c r="AZ16" s="117"/>
+      <c r="BA16" s="117"/>
+      <c r="BB16" s="118"/>
     </row>
     <row r="17" spans="4:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="114"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="116"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="121"/>
       <c r="T17" s="32"/>
       <c r="U17" s="32"/>
       <c r="V17" s="32"/>
@@ -9725,56 +9907,56 @@
       <c r="AG17" s="32"/>
       <c r="AH17" s="32"/>
       <c r="AI17" s="32"/>
-      <c r="AT17" s="114"/>
-      <c r="AU17" s="115"/>
-      <c r="AV17" s="115"/>
-      <c r="AW17" s="115"/>
-      <c r="AX17" s="115"/>
-      <c r="AY17" s="115"/>
-      <c r="AZ17" s="115"/>
-      <c r="BA17" s="115"/>
-      <c r="BB17" s="116"/>
+      <c r="AT17" s="119"/>
+      <c r="AU17" s="120"/>
+      <c r="AV17" s="120"/>
+      <c r="AW17" s="120"/>
+      <c r="AX17" s="120"/>
+      <c r="AY17" s="120"/>
+      <c r="AZ17" s="120"/>
+      <c r="BA17" s="120"/>
+      <c r="BB17" s="121"/>
     </row>
     <row r="18" spans="4:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="111" t="s">
+      <c r="D18" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="113"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="118"/>
       <c r="N18" t="s">
         <v>147</v>
       </c>
       <c r="AM18" t="s">
         <v>147</v>
       </c>
-      <c r="AT18" s="111" t="s">
+      <c r="AT18" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="AU18" s="112"/>
-      <c r="AV18" s="112"/>
-      <c r="AW18" s="112"/>
-      <c r="AX18" s="112"/>
-      <c r="AY18" s="112"/>
-      <c r="AZ18" s="112"/>
-      <c r="BA18" s="112"/>
-      <c r="BB18" s="113"/>
+      <c r="AU18" s="117"/>
+      <c r="AV18" s="117"/>
+      <c r="AW18" s="117"/>
+      <c r="AX18" s="117"/>
+      <c r="AY18" s="117"/>
+      <c r="AZ18" s="117"/>
+      <c r="BA18" s="117"/>
+      <c r="BB18" s="118"/>
     </row>
     <row r="19" spans="4:54" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="114"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="116"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="121"/>
       <c r="N19" t="s">
         <v>148</v>
       </c>
@@ -9795,15 +9977,15 @@
       <c r="AM19" t="s">
         <v>148</v>
       </c>
-      <c r="AT19" s="114"/>
-      <c r="AU19" s="115"/>
-      <c r="AV19" s="115"/>
-      <c r="AW19" s="115"/>
-      <c r="AX19" s="115"/>
-      <c r="AY19" s="115"/>
-      <c r="AZ19" s="115"/>
-      <c r="BA19" s="115"/>
-      <c r="BB19" s="116"/>
+      <c r="AT19" s="119"/>
+      <c r="AU19" s="120"/>
+      <c r="AV19" s="120"/>
+      <c r="AW19" s="120"/>
+      <c r="AX19" s="120"/>
+      <c r="AY19" s="120"/>
+      <c r="AZ19" s="120"/>
+      <c r="BA19" s="120"/>
+      <c r="BB19" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -9833,7 +10015,7 @@
   <dimension ref="C1:CL131"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="BD17" sqref="BD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9846,76 +10028,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="11:90" x14ac:dyDescent="0.3">
-      <c r="K1" s="137" t="s">
+      <c r="K1" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
       <c r="AG1" s="24"/>
-      <c r="AN1" s="144" t="s">
+      <c r="AN1" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="AO1" s="144"/>
-      <c r="AP1" s="144"/>
-      <c r="AQ1" s="144"/>
-      <c r="AR1" s="144"/>
-      <c r="AS1" s="144"/>
-      <c r="AT1" s="144"/>
-      <c r="AU1" s="144"/>
-      <c r="AV1" s="144"/>
-      <c r="AW1" s="144"/>
-      <c r="AX1" s="144"/>
-      <c r="AY1" s="144"/>
-      <c r="AZ1" s="144"/>
-      <c r="BA1" s="144"/>
-      <c r="BB1" s="144"/>
-      <c r="BC1" s="144"/>
-      <c r="BD1" s="144"/>
+      <c r="AO1" s="149"/>
+      <c r="AP1" s="149"/>
+      <c r="AQ1" s="149"/>
+      <c r="AR1" s="149"/>
+      <c r="AS1" s="149"/>
+      <c r="AT1" s="149"/>
+      <c r="AU1" s="149"/>
+      <c r="AV1" s="149"/>
+      <c r="AW1" s="149"/>
+      <c r="AX1" s="149"/>
+      <c r="AY1" s="149"/>
+      <c r="AZ1" s="149"/>
+      <c r="BA1" s="149"/>
+      <c r="BB1" s="149"/>
+      <c r="BC1" s="149"/>
+      <c r="BD1" s="149"/>
     </row>
     <row r="2" spans="11:90" x14ac:dyDescent="0.3">
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
       <c r="AG2" s="24"/>
-      <c r="AN2" s="144"/>
-      <c r="AO2" s="144"/>
-      <c r="AP2" s="144"/>
-      <c r="AQ2" s="144"/>
-      <c r="AR2" s="144"/>
-      <c r="AS2" s="144"/>
-      <c r="AT2" s="144"/>
-      <c r="AU2" s="144"/>
-      <c r="AV2" s="144"/>
-      <c r="AW2" s="144"/>
-      <c r="AX2" s="144"/>
-      <c r="AY2" s="144"/>
-      <c r="AZ2" s="144"/>
-      <c r="BA2" s="144"/>
-      <c r="BB2" s="144"/>
-      <c r="BC2" s="144"/>
-      <c r="BD2" s="144"/>
+      <c r="AN2" s="149"/>
+      <c r="AO2" s="149"/>
+      <c r="AP2" s="149"/>
+      <c r="AQ2" s="149"/>
+      <c r="AR2" s="149"/>
+      <c r="AS2" s="149"/>
+      <c r="AT2" s="149"/>
+      <c r="AU2" s="149"/>
+      <c r="AV2" s="149"/>
+      <c r="AW2" s="149"/>
+      <c r="AX2" s="149"/>
+      <c r="AY2" s="149"/>
+      <c r="AZ2" s="149"/>
+      <c r="BA2" s="149"/>
+      <c r="BB2" s="149"/>
+      <c r="BC2" s="149"/>
+      <c r="BD2" s="149"/>
     </row>
     <row r="3" spans="11:90" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AA3" t="s">
@@ -9924,19 +10106,19 @@
       <c r="AG3" s="24"/>
     </row>
     <row r="4" spans="11:90" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O4" s="138" t="s">
+      <c r="O4" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="140"/>
-      <c r="AA4" s="94" t="s">
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="145"/>
+      <c r="AA4" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="96"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="101"/>
       <c r="AG4" s="24"/>
       <c r="AN4" s="2"/>
       <c r="AO4" s="3"/>
@@ -9962,30 +10144,30 @@
       <c r="BI4" s="4"/>
     </row>
     <row r="5" spans="11:90" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O5" s="141"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="143"/>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="99"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="148"/>
+      <c r="AA5" s="102"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="104"/>
       <c r="AG5" s="24"/>
       <c r="AN5" s="5"/>
       <c r="AO5" s="6"/>
       <c r="AP5" s="78"/>
       <c r="AQ5" s="51"/>
-      <c r="AR5" s="145" t="s">
+      <c r="AR5" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="AS5" s="145"/>
-      <c r="AT5" s="145"/>
-      <c r="AU5" s="145"/>
-      <c r="AV5" s="145"/>
-      <c r="AW5" s="145"/>
-      <c r="AX5" s="145"/>
-      <c r="AY5" s="145"/>
+      <c r="AS5" s="150"/>
+      <c r="AT5" s="150"/>
+      <c r="AU5" s="150"/>
+      <c r="AV5" s="150"/>
+      <c r="AW5" s="150"/>
+      <c r="AX5" s="150"/>
+      <c r="AY5" s="150"/>
       <c r="AZ5" s="51"/>
       <c r="BA5" s="51"/>
       <c r="BB5" s="51"/>
@@ -9996,51 +10178,51 @@
       <c r="BG5" s="52"/>
       <c r="BH5" s="6"/>
       <c r="BI5" s="7"/>
-      <c r="BL5" s="136" t="s">
+      <c r="BL5" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="BM5" s="136"/>
-      <c r="BN5" s="136"/>
-      <c r="BO5" s="136"/>
-      <c r="BP5" s="136"/>
-      <c r="BQ5" s="136"/>
+      <c r="BM5" s="141"/>
+      <c r="BN5" s="141"/>
+      <c r="BO5" s="141"/>
+      <c r="BP5" s="141"/>
+      <c r="BQ5" s="141"/>
     </row>
     <row r="6" spans="11:90" x14ac:dyDescent="0.3">
-      <c r="L6" s="149" t="s">
+      <c r="L6" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="149"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="149"/>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="149"/>
-      <c r="R6" s="149"/>
-      <c r="S6" s="149"/>
-      <c r="T6" s="149"/>
-      <c r="U6" s="149"/>
-      <c r="V6" s="149"/>
-      <c r="W6" s="149"/>
-      <c r="X6" s="149"/>
-      <c r="AA6" s="94" t="s">
+      <c r="M6" s="154"/>
+      <c r="N6" s="154"/>
+      <c r="O6" s="154"/>
+      <c r="P6" s="154"/>
+      <c r="Q6" s="154"/>
+      <c r="R6" s="154"/>
+      <c r="S6" s="154"/>
+      <c r="T6" s="154"/>
+      <c r="U6" s="154"/>
+      <c r="V6" s="154"/>
+      <c r="W6" s="154"/>
+      <c r="X6" s="154"/>
+      <c r="AA6" s="99" t="s">
         <v>244</v>
       </c>
-      <c r="AB6" s="95"/>
-      <c r="AC6" s="95"/>
-      <c r="AD6" s="95"/>
-      <c r="AE6" s="96"/>
+      <c r="AB6" s="100"/>
+      <c r="AC6" s="100"/>
+      <c r="AD6" s="100"/>
+      <c r="AE6" s="101"/>
       <c r="AG6" s="24"/>
       <c r="AN6" s="5"/>
       <c r="AO6" s="6"/>
       <c r="AP6" s="79"/>
       <c r="AQ6" s="49"/>
-      <c r="AR6" s="146"/>
-      <c r="AS6" s="146"/>
-      <c r="AT6" s="146"/>
-      <c r="AU6" s="146"/>
-      <c r="AV6" s="146"/>
-      <c r="AW6" s="146"/>
-      <c r="AX6" s="146"/>
-      <c r="AY6" s="146"/>
+      <c r="AR6" s="151"/>
+      <c r="AS6" s="151"/>
+      <c r="AT6" s="151"/>
+      <c r="AU6" s="151"/>
+      <c r="AV6" s="151"/>
+      <c r="AW6" s="151"/>
+      <c r="AX6" s="151"/>
+      <c r="AY6" s="151"/>
       <c r="AZ6" s="49"/>
       <c r="BA6" s="49"/>
       <c r="BB6" s="49"/>
@@ -10051,34 +10233,34 @@
       <c r="BG6" s="54"/>
       <c r="BH6" s="6"/>
       <c r="BI6" s="7"/>
-      <c r="BL6" s="136">
+      <c r="BL6" s="141">
         <v>1234</v>
       </c>
-      <c r="BM6" s="136"/>
-      <c r="BN6" s="136"/>
-      <c r="BO6" s="136"/>
-      <c r="BP6" s="136"/>
-      <c r="BQ6" s="136"/>
+      <c r="BM6" s="141"/>
+      <c r="BN6" s="141"/>
+      <c r="BO6" s="141"/>
+      <c r="BP6" s="141"/>
+      <c r="BQ6" s="141"/>
     </row>
     <row r="7" spans="11:90" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-      <c r="AA7" s="106"/>
-      <c r="AB7" s="101"/>
-      <c r="AC7" s="101"/>
-      <c r="AD7" s="101"/>
-      <c r="AE7" s="102"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="155"/>
+      <c r="N7" s="155"/>
+      <c r="O7" s="155"/>
+      <c r="P7" s="155"/>
+      <c r="Q7" s="155"/>
+      <c r="R7" s="155"/>
+      <c r="S7" s="155"/>
+      <c r="T7" s="155"/>
+      <c r="U7" s="155"/>
+      <c r="V7" s="155"/>
+      <c r="W7" s="155"/>
+      <c r="X7" s="155"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="106"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="107"/>
       <c r="AG7" s="24"/>
       <c r="AN7" s="5"/>
       <c r="AO7" s="6"/>
@@ -10120,39 +10302,39 @@
       <c r="X8" s="51"/>
       <c r="Y8" s="52"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="97"/>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="99"/>
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="103"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="103"/>
+      <c r="AE8" s="104"/>
       <c r="AG8" s="24"/>
-      <c r="AJ8" s="175">
+      <c r="AJ8" s="180">
         <v>8088</v>
       </c>
-      <c r="AK8" s="175"/>
-      <c r="AL8" s="175"/>
-      <c r="AM8" s="176"/>
+      <c r="AK8" s="180"/>
+      <c r="AL8" s="180"/>
+      <c r="AM8" s="181"/>
       <c r="AN8" s="5"/>
       <c r="AO8" s="6"/>
       <c r="AP8" s="79"/>
-      <c r="AQ8" s="151" t="s">
+      <c r="AQ8" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="AR8" s="151"/>
-      <c r="AS8" s="151"/>
-      <c r="AT8" s="151"/>
-      <c r="AU8" s="151"/>
-      <c r="AV8" s="151"/>
-      <c r="AW8" s="151"/>
-      <c r="AX8" s="151"/>
-      <c r="AY8" s="151"/>
-      <c r="AZ8" s="151"/>
-      <c r="BA8" s="151"/>
-      <c r="BB8" s="151"/>
-      <c r="BC8" s="151"/>
-      <c r="BD8" s="151"/>
-      <c r="BE8" s="151"/>
-      <c r="BF8" s="151"/>
+      <c r="AR8" s="156"/>
+      <c r="AS8" s="156"/>
+      <c r="AT8" s="156"/>
+      <c r="AU8" s="156"/>
+      <c r="AV8" s="156"/>
+      <c r="AW8" s="156"/>
+      <c r="AX8" s="156"/>
+      <c r="AY8" s="156"/>
+      <c r="AZ8" s="156"/>
+      <c r="BA8" s="156"/>
+      <c r="BB8" s="156"/>
+      <c r="BC8" s="156"/>
+      <c r="BD8" s="156"/>
+      <c r="BE8" s="156"/>
+      <c r="BF8" s="156"/>
       <c r="BG8" s="54"/>
       <c r="BH8" s="6"/>
       <c r="BI8" s="7"/>
@@ -10173,43 +10355,43 @@
       <c r="W9" s="49"/>
       <c r="X9" s="49"/>
       <c r="Y9" s="54"/>
-      <c r="Z9" s="179" t="s">
+      <c r="Z9" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="AA9" s="180"/>
-      <c r="AB9" s="180"/>
-      <c r="AC9" s="180"/>
-      <c r="AD9" s="180"/>
-      <c r="AE9" s="180"/>
-      <c r="AF9" s="180"/>
-      <c r="AG9" s="180"/>
-      <c r="AH9" s="180"/>
-      <c r="AI9" s="180"/>
-      <c r="AJ9" s="180"/>
-      <c r="AK9" s="180"/>
-      <c r="AL9" s="180"/>
-      <c r="AM9" s="181"/>
+      <c r="AA9" s="185"/>
+      <c r="AB9" s="185"/>
+      <c r="AC9" s="185"/>
+      <c r="AD9" s="185"/>
+      <c r="AE9" s="185"/>
+      <c r="AF9" s="185"/>
+      <c r="AG9" s="185"/>
+      <c r="AH9" s="185"/>
+      <c r="AI9" s="185"/>
+      <c r="AJ9" s="185"/>
+      <c r="AK9" s="185"/>
+      <c r="AL9" s="185"/>
+      <c r="AM9" s="186"/>
       <c r="AN9" s="5"/>
       <c r="AO9" s="6"/>
       <c r="AP9" s="79"/>
-      <c r="AQ9" s="151" t="s">
+      <c r="AQ9" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="AR9" s="151"/>
-      <c r="AS9" s="151"/>
-      <c r="AT9" s="151"/>
-      <c r="AU9" s="151"/>
-      <c r="AV9" s="151"/>
-      <c r="AW9" s="151"/>
-      <c r="AX9" s="151"/>
-      <c r="AY9" s="151"/>
-      <c r="AZ9" s="151"/>
-      <c r="BA9" s="151"/>
-      <c r="BB9" s="151"/>
-      <c r="BC9" s="151"/>
-      <c r="BD9" s="151"/>
-      <c r="BE9" s="151"/>
-      <c r="BF9" s="151"/>
+      <c r="AR9" s="156"/>
+      <c r="AS9" s="156"/>
+      <c r="AT9" s="156"/>
+      <c r="AU9" s="156"/>
+      <c r="AV9" s="156"/>
+      <c r="AW9" s="156"/>
+      <c r="AX9" s="156"/>
+      <c r="AY9" s="156"/>
+      <c r="AZ9" s="156"/>
+      <c r="BA9" s="156"/>
+      <c r="BB9" s="156"/>
+      <c r="BC9" s="156"/>
+      <c r="BD9" s="156"/>
+      <c r="BE9" s="156"/>
+      <c r="BF9" s="156"/>
       <c r="BG9" s="54"/>
       <c r="BH9" s="6"/>
       <c r="BI9" s="7"/>
@@ -10217,56 +10399,56 @@
     <row r="10" spans="11:90" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K10" s="53"/>
       <c r="L10" s="49"/>
-      <c r="M10" s="160" t="s">
+      <c r="M10" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="161"/>
-      <c r="S10" s="161"/>
-      <c r="T10" s="161"/>
-      <c r="U10" s="161"/>
-      <c r="V10" s="161"/>
-      <c r="W10" s="162"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="166"/>
+      <c r="P10" s="166"/>
+      <c r="Q10" s="166"/>
+      <c r="R10" s="166"/>
+      <c r="S10" s="166"/>
+      <c r="T10" s="166"/>
+      <c r="U10" s="166"/>
+      <c r="V10" s="166"/>
+      <c r="W10" s="167"/>
       <c r="X10" s="49"/>
       <c r="Y10" s="54"/>
-      <c r="Z10" s="182"/>
-      <c r="AA10" s="183"/>
-      <c r="AB10" s="183"/>
-      <c r="AC10" s="183"/>
-      <c r="AD10" s="183"/>
-      <c r="AE10" s="183"/>
-      <c r="AF10" s="183"/>
-      <c r="AG10" s="183"/>
-      <c r="AH10" s="183"/>
-      <c r="AI10" s="183"/>
-      <c r="AJ10" s="183"/>
-      <c r="AK10" s="183"/>
-      <c r="AL10" s="183"/>
-      <c r="AM10" s="184"/>
+      <c r="Z10" s="187"/>
+      <c r="AA10" s="188"/>
+      <c r="AB10" s="188"/>
+      <c r="AC10" s="188"/>
+      <c r="AD10" s="188"/>
+      <c r="AE10" s="188"/>
+      <c r="AF10" s="188"/>
+      <c r="AG10" s="188"/>
+      <c r="AH10" s="188"/>
+      <c r="AI10" s="188"/>
+      <c r="AJ10" s="188"/>
+      <c r="AK10" s="188"/>
+      <c r="AL10" s="188"/>
+      <c r="AM10" s="189"/>
       <c r="AN10" s="5"/>
       <c r="AO10" s="6"/>
       <c r="AP10" s="79"/>
-      <c r="AQ10" s="151" t="s">
+      <c r="AQ10" s="156" t="s">
         <v>239</v>
       </c>
-      <c r="AR10" s="151"/>
-      <c r="AS10" s="151"/>
-      <c r="AT10" s="151"/>
-      <c r="AU10" s="151"/>
-      <c r="AV10" s="151"/>
-      <c r="AW10" s="151"/>
-      <c r="AX10" s="151"/>
-      <c r="AY10" s="151"/>
-      <c r="AZ10" s="151"/>
-      <c r="BA10" s="151"/>
-      <c r="BB10" s="151"/>
-      <c r="BC10" s="151"/>
-      <c r="BD10" s="151"/>
-      <c r="BE10" s="151"/>
-      <c r="BF10" s="151"/>
+      <c r="AR10" s="156"/>
+      <c r="AS10" s="156"/>
+      <c r="AT10" s="156"/>
+      <c r="AU10" s="156"/>
+      <c r="AV10" s="156"/>
+      <c r="AW10" s="156"/>
+      <c r="AX10" s="156"/>
+      <c r="AY10" s="156"/>
+      <c r="AZ10" s="156"/>
+      <c r="BA10" s="156"/>
+      <c r="BB10" s="156"/>
+      <c r="BC10" s="156"/>
+      <c r="BD10" s="156"/>
+      <c r="BE10" s="156"/>
+      <c r="BF10" s="156"/>
       <c r="BG10" s="54"/>
       <c r="BH10" s="6"/>
       <c r="BI10" s="7"/>
@@ -10294,24 +10476,24 @@
       <c r="AN11" s="5"/>
       <c r="AO11" s="6"/>
       <c r="AP11" s="79"/>
-      <c r="AQ11" s="151" t="s">
+      <c r="AQ11" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="AR11" s="151"/>
-      <c r="AS11" s="151"/>
-      <c r="AT11" s="151"/>
-      <c r="AU11" s="151"/>
-      <c r="AV11" s="151"/>
-      <c r="AW11" s="151"/>
-      <c r="AX11" s="151"/>
-      <c r="AY11" s="151"/>
-      <c r="AZ11" s="151"/>
-      <c r="BA11" s="151"/>
-      <c r="BB11" s="151"/>
-      <c r="BC11" s="151"/>
-      <c r="BD11" s="151"/>
-      <c r="BE11" s="151"/>
-      <c r="BF11" s="151"/>
+      <c r="AR11" s="156"/>
+      <c r="AS11" s="156"/>
+      <c r="AT11" s="156"/>
+      <c r="AU11" s="156"/>
+      <c r="AV11" s="156"/>
+      <c r="AW11" s="156"/>
+      <c r="AX11" s="156"/>
+      <c r="AY11" s="156"/>
+      <c r="AZ11" s="156"/>
+      <c r="BA11" s="156"/>
+      <c r="BB11" s="156"/>
+      <c r="BC11" s="156"/>
+      <c r="BD11" s="156"/>
+      <c r="BE11" s="156"/>
+      <c r="BF11" s="156"/>
       <c r="BG11" s="54"/>
       <c r="BH11" s="6"/>
       <c r="BI11" s="7"/>
@@ -10321,50 +10503,50 @@
       <c r="L12" s="49"/>
       <c r="M12" s="53"/>
       <c r="N12" s="49"/>
-      <c r="O12" s="91" t="s">
+      <c r="O12" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="93"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="98"/>
       <c r="S12" s="49"/>
-      <c r="T12" s="91" t="s">
+      <c r="T12" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="U12" s="92"/>
-      <c r="V12" s="93"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="98"/>
       <c r="W12" s="54"/>
       <c r="X12" s="49"/>
       <c r="Y12" s="54"/>
       <c r="Z12" s="6"/>
-      <c r="AA12" s="94" t="s">
+      <c r="AA12" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="96"/>
+      <c r="AB12" s="100"/>
+      <c r="AC12" s="100"/>
+      <c r="AD12" s="100"/>
+      <c r="AE12" s="101"/>
       <c r="AG12" s="24"/>
       <c r="AN12" s="5"/>
       <c r="AO12" s="6"/>
       <c r="AP12" s="53"/>
       <c r="AQ12" s="80"/>
-      <c r="AR12" s="151" t="s">
+      <c r="AR12" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="AS12" s="151"/>
-      <c r="AT12" s="151"/>
-      <c r="AU12" s="151"/>
-      <c r="AV12" s="151"/>
-      <c r="AW12" s="151"/>
-      <c r="AX12" s="151"/>
-      <c r="AY12" s="151"/>
-      <c r="AZ12" s="151"/>
-      <c r="BA12" s="151"/>
-      <c r="BB12" s="151"/>
-      <c r="BC12" s="151"/>
-      <c r="BD12" s="151"/>
-      <c r="BE12" s="151"/>
+      <c r="AS12" s="156"/>
+      <c r="AT12" s="156"/>
+      <c r="AU12" s="156"/>
+      <c r="AV12" s="156"/>
+      <c r="AW12" s="156"/>
+      <c r="AX12" s="156"/>
+      <c r="AY12" s="156"/>
+      <c r="AZ12" s="156"/>
+      <c r="BA12" s="156"/>
+      <c r="BB12" s="156"/>
+      <c r="BC12" s="156"/>
+      <c r="BD12" s="156"/>
+      <c r="BE12" s="156"/>
       <c r="BF12" s="80"/>
       <c r="BG12" s="54"/>
       <c r="BH12" s="6"/>
@@ -10387,34 +10569,34 @@
       <c r="X13" s="49"/>
       <c r="Y13" s="54"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="98"/>
-      <c r="AD13" s="98"/>
-      <c r="AE13" s="99"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="103"/>
+      <c r="AD13" s="103"/>
+      <c r="AE13" s="104"/>
       <c r="AG13" s="24"/>
       <c r="AN13" s="5"/>
       <c r="AO13" s="6"/>
       <c r="AP13" s="53"/>
       <c r="AQ13" s="80"/>
-      <c r="AR13" s="151" t="s">
+      <c r="AR13" s="156" t="s">
         <v>240</v>
       </c>
-      <c r="AS13" s="151"/>
-      <c r="AT13" s="151"/>
-      <c r="AU13" s="151"/>
-      <c r="AV13" s="151"/>
-      <c r="AW13" s="151"/>
-      <c r="AX13" s="151"/>
-      <c r="AY13" s="151"/>
-      <c r="AZ13" s="151"/>
-      <c r="BA13" s="151"/>
-      <c r="BB13" s="151"/>
-      <c r="BC13" s="151"/>
-      <c r="BD13" s="151"/>
-      <c r="BE13" s="151"/>
-      <c r="BF13" s="151"/>
-      <c r="BG13" s="151"/>
+      <c r="AS13" s="156"/>
+      <c r="AT13" s="156"/>
+      <c r="AU13" s="156"/>
+      <c r="AV13" s="156"/>
+      <c r="AW13" s="156"/>
+      <c r="AX13" s="156"/>
+      <c r="AY13" s="156"/>
+      <c r="AZ13" s="156"/>
+      <c r="BA13" s="156"/>
+      <c r="BB13" s="156"/>
+      <c r="BC13" s="156"/>
+      <c r="BD13" s="156"/>
+      <c r="BE13" s="156"/>
+      <c r="BF13" s="156"/>
+      <c r="BG13" s="156"/>
       <c r="BH13" s="6"/>
       <c r="BI13" s="7"/>
     </row>
@@ -10423,27 +10605,27 @@
       <c r="L14" s="49"/>
       <c r="M14" s="53"/>
       <c r="N14" s="49"/>
-      <c r="O14" s="91" t="s">
+      <c r="O14" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="93"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="98"/>
       <c r="S14" s="49"/>
-      <c r="T14" s="91"/>
-      <c r="U14" s="92"/>
-      <c r="V14" s="93"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="54"/>
       <c r="X14" s="49"/>
       <c r="Y14" s="54"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="94" t="s">
+      <c r="AA14" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="96"/>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="100"/>
+      <c r="AE14" s="101"/>
       <c r="AG14" s="24"/>
       <c r="AN14" s="5"/>
       <c r="AO14" s="6"/>
@@ -10485,11 +10667,11 @@
       <c r="X15" s="49"/>
       <c r="Y15" s="54"/>
       <c r="Z15" s="6"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="98"/>
-      <c r="AC15" s="98"/>
-      <c r="AD15" s="98"/>
-      <c r="AE15" s="99"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="103"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="104"/>
       <c r="AG15" s="24"/>
       <c r="AN15" s="5"/>
       <c r="AO15" s="6"/>
@@ -10530,22 +10712,22 @@
       <c r="W16" s="54"/>
       <c r="X16" s="49"/>
       <c r="Y16" s="54"/>
-      <c r="Z16" s="179" t="s">
+      <c r="Z16" s="184" t="s">
         <v>66</v>
       </c>
-      <c r="AA16" s="180"/>
-      <c r="AB16" s="180"/>
-      <c r="AC16" s="180"/>
-      <c r="AD16" s="180"/>
-      <c r="AE16" s="180"/>
-      <c r="AF16" s="180"/>
-      <c r="AG16" s="180"/>
-      <c r="AH16" s="180"/>
-      <c r="AI16" s="180"/>
-      <c r="AJ16" s="180"/>
-      <c r="AK16" s="180"/>
-      <c r="AL16" s="180"/>
-      <c r="AM16" s="181"/>
+      <c r="AA16" s="185"/>
+      <c r="AB16" s="185"/>
+      <c r="AC16" s="185"/>
+      <c r="AD16" s="185"/>
+      <c r="AE16" s="185"/>
+      <c r="AF16" s="185"/>
+      <c r="AG16" s="185"/>
+      <c r="AH16" s="185"/>
+      <c r="AI16" s="185"/>
+      <c r="AJ16" s="185"/>
+      <c r="AK16" s="185"/>
+      <c r="AL16" s="185"/>
+      <c r="AM16" s="186"/>
       <c r="AN16" s="5"/>
       <c r="AO16" s="6"/>
       <c r="AP16" s="53"/>
@@ -10560,32 +10742,32 @@
       <c r="AY16" s="82"/>
       <c r="AZ16" s="82"/>
       <c r="BA16" s="82"/>
-      <c r="BB16" s="152" t="s">
+      <c r="BB16" s="157" t="s">
         <v>149</v>
       </c>
-      <c r="BC16" s="153"/>
-      <c r="BD16" s="154"/>
+      <c r="BC16" s="158"/>
+      <c r="BD16" s="159"/>
       <c r="BE16" s="82"/>
       <c r="BF16" s="82"/>
       <c r="BG16" s="54"/>
       <c r="BH16" s="6"/>
       <c r="BI16" s="7"/>
-      <c r="BY16" s="136" t="s">
+      <c r="BY16" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="BZ16" s="136"/>
-      <c r="CA16" s="136"/>
-      <c r="CB16" s="136"/>
-      <c r="CC16" s="136"/>
-      <c r="CD16" s="136"/>
-      <c r="CE16" s="136"/>
-      <c r="CF16" s="136"/>
-      <c r="CG16" s="136"/>
-      <c r="CH16" s="136"/>
-      <c r="CI16" s="136"/>
-      <c r="CJ16" s="136"/>
-      <c r="CK16" s="136"/>
-      <c r="CL16" s="136"/>
+      <c r="BZ16" s="141"/>
+      <c r="CA16" s="141"/>
+      <c r="CB16" s="141"/>
+      <c r="CC16" s="141"/>
+      <c r="CD16" s="141"/>
+      <c r="CE16" s="141"/>
+      <c r="CF16" s="141"/>
+      <c r="CG16" s="141"/>
+      <c r="CH16" s="141"/>
+      <c r="CI16" s="141"/>
+      <c r="CJ16" s="141"/>
+      <c r="CK16" s="141"/>
+      <c r="CL16" s="141"/>
     </row>
     <row r="17" spans="3:90" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K17" s="53"/>
@@ -10603,20 +10785,20 @@
       <c r="W17" s="54"/>
       <c r="X17" s="49"/>
       <c r="Y17" s="54"/>
-      <c r="Z17" s="182"/>
-      <c r="AA17" s="183"/>
-      <c r="AB17" s="183"/>
-      <c r="AC17" s="183"/>
-      <c r="AD17" s="183"/>
-      <c r="AE17" s="183"/>
-      <c r="AF17" s="183"/>
-      <c r="AG17" s="183"/>
-      <c r="AH17" s="183"/>
-      <c r="AI17" s="183"/>
-      <c r="AJ17" s="183"/>
-      <c r="AK17" s="183"/>
-      <c r="AL17" s="183"/>
-      <c r="AM17" s="184"/>
+      <c r="Z17" s="187"/>
+      <c r="AA17" s="188"/>
+      <c r="AB17" s="188"/>
+      <c r="AC17" s="188"/>
+      <c r="AD17" s="188"/>
+      <c r="AE17" s="188"/>
+      <c r="AF17" s="188"/>
+      <c r="AG17" s="188"/>
+      <c r="AH17" s="188"/>
+      <c r="AI17" s="188"/>
+      <c r="AJ17" s="188"/>
+      <c r="AK17" s="188"/>
+      <c r="AL17" s="188"/>
+      <c r="AM17" s="189"/>
       <c r="AN17" s="5"/>
       <c r="AO17" s="6"/>
       <c r="AP17" s="53"/>
@@ -10639,19 +10821,19 @@
       <c r="BG17" s="54"/>
       <c r="BH17" s="6"/>
       <c r="BI17" s="7"/>
-      <c r="BV17" s="149" t="s">
+      <c r="BV17" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="BW17" s="149"/>
-      <c r="BX17" s="149"/>
-      <c r="BY17" s="149"/>
-      <c r="BZ17" s="149"/>
-      <c r="CA17" s="149"/>
-      <c r="CB17" s="149"/>
-      <c r="CC17" s="149"/>
-      <c r="CD17" s="149"/>
-      <c r="CE17" s="149"/>
-      <c r="CF17" s="149"/>
+      <c r="BW17" s="154"/>
+      <c r="BX17" s="154"/>
+      <c r="BY17" s="154"/>
+      <c r="BZ17" s="154"/>
+      <c r="CA17" s="154"/>
+      <c r="CB17" s="154"/>
+      <c r="CC17" s="154"/>
+      <c r="CD17" s="154"/>
+      <c r="CE17" s="154"/>
+      <c r="CF17" s="154"/>
     </row>
     <row r="18" spans="3:90" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K18" s="53"/>
@@ -10695,17 +10877,17 @@
       <c r="BG18" s="57"/>
       <c r="BH18" s="6"/>
       <c r="BI18" s="7"/>
-      <c r="BV18" s="150"/>
-      <c r="BW18" s="150"/>
-      <c r="BX18" s="150"/>
-      <c r="BY18" s="150"/>
-      <c r="BZ18" s="150"/>
-      <c r="CA18" s="150"/>
-      <c r="CB18" s="150"/>
-      <c r="CC18" s="150"/>
-      <c r="CD18" s="150"/>
-      <c r="CE18" s="150"/>
-      <c r="CF18" s="150"/>
+      <c r="BV18" s="155"/>
+      <c r="BW18" s="155"/>
+      <c r="BX18" s="155"/>
+      <c r="BY18" s="155"/>
+      <c r="BZ18" s="155"/>
+      <c r="CA18" s="155"/>
+      <c r="CB18" s="155"/>
+      <c r="CC18" s="155"/>
+      <c r="CD18" s="155"/>
+      <c r="CE18" s="155"/>
+      <c r="CF18" s="155"/>
     </row>
     <row r="19" spans="3:90" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K19" s="53"/>
@@ -10767,7 +10949,7 @@
       <c r="CK19" s="3"/>
       <c r="CL19" s="4"/>
     </row>
-    <row r="20" spans="3:90" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:90" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K20" s="53"/>
       <c r="L20" s="49"/>
       <c r="M20" s="49"/>
@@ -10796,15 +10978,17 @@
       <c r="AT20" s="6"/>
       <c r="AU20" s="6"/>
       <c r="AV20" s="6"/>
-      <c r="AW20" s="6"/>
-      <c r="AX20" s="5"/>
-      <c r="AY20" s="7"/>
-      <c r="AZ20" s="177">
+      <c r="AW20" s="157" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX20" s="158"/>
+      <c r="AY20" s="159"/>
+      <c r="AZ20" s="182">
         <v>8009</v>
       </c>
-      <c r="BA20" s="178"/>
-      <c r="BB20" s="178"/>
-      <c r="BC20" s="178"/>
+      <c r="BA20" s="183"/>
+      <c r="BB20" s="183"/>
+      <c r="BC20" s="183"/>
       <c r="BD20" s="6"/>
       <c r="BE20" s="6"/>
       <c r="BF20" s="6"/>
@@ -10859,7 +11043,7 @@
       <c r="AU21" s="6"/>
       <c r="AV21" s="6"/>
       <c r="AW21" s="6"/>
-      <c r="AX21" s="6"/>
+      <c r="AX21" s="5"/>
       <c r="AY21" s="7"/>
       <c r="AZ21" s="6"/>
       <c r="BA21" s="6"/>
@@ -10898,15 +11082,15 @@
       <c r="AO22" s="6"/>
       <c r="AP22" s="83"/>
       <c r="AQ22" s="84"/>
-      <c r="AR22" s="147" t="s">
+      <c r="AR22" s="152" t="s">
         <v>61</v>
       </c>
-      <c r="AS22" s="147"/>
-      <c r="AT22" s="147"/>
-      <c r="AU22" s="147"/>
-      <c r="AV22" s="147"/>
-      <c r="AW22" s="147"/>
-      <c r="AX22" s="148"/>
+      <c r="AS22" s="152"/>
+      <c r="AT22" s="152"/>
+      <c r="AU22" s="152"/>
+      <c r="AV22" s="152"/>
+      <c r="AW22" s="152"/>
+      <c r="AX22" s="153"/>
       <c r="AY22" s="70"/>
       <c r="AZ22" s="84"/>
       <c r="BA22" s="84"/>
@@ -10951,13 +11135,13 @@
       <c r="AO23" s="6"/>
       <c r="AP23" s="86"/>
       <c r="AQ23" s="70"/>
-      <c r="AR23" s="148"/>
-      <c r="AS23" s="148"/>
-      <c r="AT23" s="148"/>
-      <c r="AU23" s="148"/>
-      <c r="AV23" s="148"/>
-      <c r="AW23" s="148"/>
-      <c r="AX23" s="148"/>
+      <c r="AR23" s="153"/>
+      <c r="AS23" s="153"/>
+      <c r="AT23" s="153"/>
+      <c r="AU23" s="153"/>
+      <c r="AV23" s="153"/>
+      <c r="AW23" s="153"/>
+      <c r="AX23" s="153"/>
       <c r="AY23" s="70"/>
       <c r="AZ23" s="70"/>
       <c r="BA23" s="70"/>
@@ -11053,9 +11237,11 @@
       <c r="AP25" s="86"/>
       <c r="AQ25" s="70"/>
       <c r="AR25" s="70"/>
-      <c r="AS25" s="70"/>
-      <c r="AT25" s="70"/>
-      <c r="AU25" s="70"/>
+      <c r="AS25" s="157" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT25" s="158"/>
+      <c r="AU25" s="159"/>
       <c r="AV25" s="70"/>
       <c r="AW25" s="70"/>
       <c r="AX25" s="70"/>
@@ -11113,17 +11299,17 @@
       <c r="AP26" s="86"/>
       <c r="AQ26" s="70"/>
       <c r="AR26" s="70"/>
-      <c r="AS26" s="169" t="s">
+      <c r="AS26" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="AT26" s="170"/>
-      <c r="AU26" s="170"/>
-      <c r="AV26" s="170"/>
-      <c r="AW26" s="170"/>
-      <c r="AX26" s="170"/>
-      <c r="AY26" s="170"/>
-      <c r="AZ26" s="170"/>
-      <c r="BA26" s="171"/>
+      <c r="AT26" s="175"/>
+      <c r="AU26" s="175"/>
+      <c r="AV26" s="175"/>
+      <c r="AW26" s="175"/>
+      <c r="AX26" s="175"/>
+      <c r="AY26" s="175"/>
+      <c r="AZ26" s="175"/>
+      <c r="BA26" s="176"/>
       <c r="BB26" s="87"/>
       <c r="BC26" s="70"/>
       <c r="BD26" s="70"/>
@@ -11137,14 +11323,14 @@
       <c r="BX26" s="6"/>
       <c r="BY26" s="6"/>
       <c r="BZ26" s="6"/>
-      <c r="CA26" s="159" t="s">
+      <c r="CA26" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="CB26" s="159"/>
-      <c r="CC26" s="159"/>
-      <c r="CD26" s="159"/>
-      <c r="CE26" s="159"/>
-      <c r="CF26" s="159"/>
+      <c r="CB26" s="164"/>
+      <c r="CC26" s="164"/>
+      <c r="CD26" s="164"/>
+      <c r="CE26" s="164"/>
+      <c r="CF26" s="164"/>
       <c r="CG26" s="6"/>
       <c r="CH26" s="6"/>
       <c r="CI26" s="6"/>
@@ -11178,15 +11364,15 @@
       <c r="AP27" s="86"/>
       <c r="AQ27" s="70"/>
       <c r="AR27" s="70"/>
-      <c r="AS27" s="172"/>
-      <c r="AT27" s="173"/>
-      <c r="AU27" s="173"/>
-      <c r="AV27" s="173"/>
-      <c r="AW27" s="173"/>
-      <c r="AX27" s="173"/>
-      <c r="AY27" s="173"/>
-      <c r="AZ27" s="173"/>
-      <c r="BA27" s="174"/>
+      <c r="AS27" s="177"/>
+      <c r="AT27" s="178"/>
+      <c r="AU27" s="178"/>
+      <c r="AV27" s="178"/>
+      <c r="AW27" s="178"/>
+      <c r="AX27" s="178"/>
+      <c r="AY27" s="178"/>
+      <c r="AZ27" s="178"/>
+      <c r="BA27" s="179"/>
       <c r="BB27" s="87"/>
       <c r="BC27" s="70"/>
       <c r="BD27" s="70"/>
@@ -11195,29 +11381,29 @@
       <c r="BG27" s="72"/>
       <c r="BH27" s="6"/>
       <c r="BI27" s="7"/>
-      <c r="BK27" s="136" t="s">
+      <c r="BK27" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="BL27" s="136"/>
-      <c r="BM27" s="136"/>
-      <c r="BN27" s="136"/>
-      <c r="BO27" s="136"/>
-      <c r="BP27" s="136"/>
-      <c r="BQ27" s="136"/>
-      <c r="BR27" s="136"/>
-      <c r="BS27" s="136"/>
-      <c r="BT27" s="136"/>
+      <c r="BL27" s="141"/>
+      <c r="BM27" s="141"/>
+      <c r="BN27" s="141"/>
+      <c r="BO27" s="141"/>
+      <c r="BP27" s="141"/>
+      <c r="BQ27" s="141"/>
+      <c r="BR27" s="141"/>
+      <c r="BS27" s="141"/>
+      <c r="BT27" s="141"/>
       <c r="BV27" s="5"/>
       <c r="BW27" s="6"/>
       <c r="BX27" s="6"/>
       <c r="BY27" s="6"/>
       <c r="BZ27" s="6"/>
-      <c r="CA27" s="159"/>
-      <c r="CB27" s="159"/>
-      <c r="CC27" s="159"/>
-      <c r="CD27" s="159"/>
-      <c r="CE27" s="159"/>
-      <c r="CF27" s="159"/>
+      <c r="CA27" s="164"/>
+      <c r="CB27" s="164"/>
+      <c r="CC27" s="164"/>
+      <c r="CD27" s="164"/>
+      <c r="CE27" s="164"/>
+      <c r="CF27" s="164"/>
       <c r="CG27" s="6"/>
       <c r="CH27" s="6"/>
       <c r="CI27" s="6"/>
@@ -11237,17 +11423,17 @@
       <c r="AP28" s="86"/>
       <c r="AQ28" s="70"/>
       <c r="AR28" s="70"/>
-      <c r="AS28" s="163" t="s">
+      <c r="AS28" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="AT28" s="164"/>
-      <c r="AU28" s="164"/>
-      <c r="AV28" s="164"/>
-      <c r="AW28" s="164"/>
-      <c r="AX28" s="164"/>
-      <c r="AY28" s="164"/>
-      <c r="AZ28" s="164"/>
-      <c r="BA28" s="165"/>
+      <c r="AT28" s="169"/>
+      <c r="AU28" s="169"/>
+      <c r="AV28" s="169"/>
+      <c r="AW28" s="169"/>
+      <c r="AX28" s="169"/>
+      <c r="AY28" s="169"/>
+      <c r="AZ28" s="169"/>
+      <c r="BA28" s="170"/>
       <c r="BB28" s="70"/>
       <c r="BC28" s="70"/>
       <c r="BD28" s="70"/>
@@ -11256,18 +11442,18 @@
       <c r="BG28" s="72"/>
       <c r="BH28" s="6"/>
       <c r="BI28" s="7"/>
-      <c r="BK28" s="98" t="s">
+      <c r="BK28" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="BL28" s="98"/>
-      <c r="BM28" s="98"/>
-      <c r="BN28" s="98"/>
-      <c r="BO28" s="98"/>
-      <c r="BP28" s="98"/>
-      <c r="BQ28" s="98"/>
-      <c r="BR28" s="98"/>
-      <c r="BS28" s="98"/>
-      <c r="BT28" s="98"/>
+      <c r="BL28" s="103"/>
+      <c r="BM28" s="103"/>
+      <c r="BN28" s="103"/>
+      <c r="BO28" s="103"/>
+      <c r="BP28" s="103"/>
+      <c r="BQ28" s="103"/>
+      <c r="BR28" s="103"/>
+      <c r="BS28" s="103"/>
+      <c r="BT28" s="103"/>
       <c r="BV28" s="5"/>
       <c r="BW28" s="6"/>
       <c r="BX28" s="6"/>
@@ -11297,15 +11483,15 @@
       <c r="AP29" s="86"/>
       <c r="AQ29" s="70"/>
       <c r="AR29" s="70"/>
-      <c r="AS29" s="166"/>
-      <c r="AT29" s="167"/>
-      <c r="AU29" s="167"/>
-      <c r="AV29" s="167"/>
-      <c r="AW29" s="167"/>
-      <c r="AX29" s="167"/>
-      <c r="AY29" s="167"/>
-      <c r="AZ29" s="167"/>
-      <c r="BA29" s="168"/>
+      <c r="AS29" s="171"/>
+      <c r="AT29" s="172"/>
+      <c r="AU29" s="172"/>
+      <c r="AV29" s="172"/>
+      <c r="AW29" s="172"/>
+      <c r="AX29" s="172"/>
+      <c r="AY29" s="172"/>
+      <c r="AZ29" s="172"/>
+      <c r="BA29" s="173"/>
       <c r="BB29" s="70"/>
       <c r="BC29" s="70"/>
       <c r="BD29" s="70"/>
@@ -11353,17 +11539,17 @@
       <c r="AP30" s="86"/>
       <c r="AQ30" s="70"/>
       <c r="AR30" s="70"/>
-      <c r="AS30" s="155" t="s">
+      <c r="AS30" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="AT30" s="156"/>
-      <c r="AU30" s="156"/>
-      <c r="AV30" s="156"/>
-      <c r="AW30" s="156"/>
-      <c r="AX30" s="156"/>
-      <c r="AY30" s="156"/>
-      <c r="AZ30" s="156"/>
-      <c r="BA30" s="157"/>
+      <c r="AT30" s="161"/>
+      <c r="AU30" s="161"/>
+      <c r="AV30" s="161"/>
+      <c r="AW30" s="161"/>
+      <c r="AX30" s="161"/>
+      <c r="AY30" s="161"/>
+      <c r="AZ30" s="161"/>
+      <c r="BA30" s="162"/>
       <c r="BB30" s="70"/>
       <c r="BC30" s="70"/>
       <c r="BD30" s="70"/>
@@ -11374,15 +11560,15 @@
       <c r="BI30" s="7"/>
       <c r="BJ30" s="8"/>
       <c r="BK30" s="9"/>
-      <c r="BL30" s="158" t="s">
+      <c r="BL30" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="BM30" s="158"/>
-      <c r="BN30" s="158"/>
-      <c r="BO30" s="158"/>
-      <c r="BP30" s="158"/>
-      <c r="BQ30" s="158"/>
-      <c r="BR30" s="158"/>
+      <c r="BM30" s="163"/>
+      <c r="BN30" s="163"/>
+      <c r="BO30" s="163"/>
+      <c r="BP30" s="163"/>
+      <c r="BQ30" s="163"/>
+      <c r="BR30" s="163"/>
       <c r="BS30" s="9"/>
       <c r="BT30" s="9"/>
       <c r="BU30" s="10"/>
@@ -12831,7 +13017,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="39">
+    <mergeCell ref="AS25:AU25"/>
     <mergeCell ref="AS30:BA30"/>
     <mergeCell ref="BL30:BR30"/>
     <mergeCell ref="CA26:CF27"/>
@@ -12847,6 +13034,7 @@
     <mergeCell ref="AZ20:BC20"/>
     <mergeCell ref="Z9:AM10"/>
     <mergeCell ref="Z16:AM17"/>
+    <mergeCell ref="AW20:AY20"/>
     <mergeCell ref="AN1:BD2"/>
     <mergeCell ref="AR5:AY6"/>
     <mergeCell ref="AR22:AX23"/>
@@ -12882,6 +13070,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D92B4E5-AAF8-455B-932F-DB1FB96BA725}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F01764-4B52-4C63-A8C2-24EDC25FB57E}">
   <dimension ref="B1:BJ83"/>
   <sheetViews>
@@ -12893,69 +13097,69 @@
   <sheetData>
     <row r="1" spans="2:62" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:62" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="200" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="196"/>
-      <c r="AH2" s="196"/>
-      <c r="AI2" s="196"/>
-      <c r="AJ2" s="196"/>
-      <c r="AK2" s="196"/>
-      <c r="AL2" s="196"/>
-      <c r="AM2" s="196"/>
-      <c r="AN2" s="196"/>
-      <c r="AO2" s="196"/>
-      <c r="AP2" s="196"/>
-      <c r="AQ2" s="196"/>
-      <c r="AR2" s="196"/>
-      <c r="AS2" s="196"/>
-      <c r="AT2" s="196"/>
-      <c r="AU2" s="196"/>
-      <c r="AV2" s="196"/>
-      <c r="AW2" s="196"/>
-      <c r="AX2" s="196"/>
-      <c r="AY2" s="196"/>
-      <c r="AZ2" s="196"/>
-      <c r="BA2" s="196"/>
-      <c r="BB2" s="196"/>
-      <c r="BC2" s="196"/>
-      <c r="BD2" s="196"/>
-      <c r="BE2" s="196"/>
-      <c r="BF2" s="196"/>
-      <c r="BG2" s="196"/>
-      <c r="BH2" s="196"/>
-      <c r="BI2" s="196"/>
-      <c r="BJ2" s="197"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="201"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="201"/>
+      <c r="AM2" s="201"/>
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="201"/>
+      <c r="AP2" s="201"/>
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="201"/>
+      <c r="AS2" s="201"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="201"/>
+      <c r="AV2" s="201"/>
+      <c r="AW2" s="201"/>
+      <c r="AX2" s="201"/>
+      <c r="AY2" s="201"/>
+      <c r="AZ2" s="201"/>
+      <c r="BA2" s="201"/>
+      <c r="BB2" s="201"/>
+      <c r="BC2" s="201"/>
+      <c r="BD2" s="201"/>
+      <c r="BE2" s="201"/>
+      <c r="BF2" s="201"/>
+      <c r="BG2" s="201"/>
+      <c r="BH2" s="201"/>
+      <c r="BI2" s="201"/>
+      <c r="BJ2" s="202"/>
     </row>
     <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
@@ -13100,38 +13304,38 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="198" t="s">
+      <c r="R5" s="203" t="s">
         <v>157</v>
       </c>
-      <c r="S5" s="199"/>
-      <c r="T5" s="199"/>
-      <c r="U5" s="199"/>
-      <c r="V5" s="199"/>
-      <c r="W5" s="199"/>
-      <c r="X5" s="199"/>
-      <c r="Y5" s="199"/>
-      <c r="Z5" s="199"/>
-      <c r="AA5" s="199"/>
-      <c r="AB5" s="199"/>
-      <c r="AC5" s="199"/>
-      <c r="AD5" s="199"/>
-      <c r="AE5" s="199"/>
-      <c r="AF5" s="199"/>
-      <c r="AG5" s="199"/>
-      <c r="AH5" s="199"/>
-      <c r="AI5" s="199"/>
-      <c r="AJ5" s="199"/>
-      <c r="AK5" s="199"/>
-      <c r="AL5" s="199"/>
-      <c r="AM5" s="199"/>
-      <c r="AN5" s="199"/>
-      <c r="AO5" s="199"/>
-      <c r="AP5" s="199"/>
-      <c r="AQ5" s="199"/>
-      <c r="AR5" s="199"/>
-      <c r="AS5" s="199"/>
-      <c r="AT5" s="199"/>
-      <c r="AU5" s="200"/>
+      <c r="S5" s="204"/>
+      <c r="T5" s="204"/>
+      <c r="U5" s="204"/>
+      <c r="V5" s="204"/>
+      <c r="W5" s="204"/>
+      <c r="X5" s="204"/>
+      <c r="Y5" s="204"/>
+      <c r="Z5" s="204"/>
+      <c r="AA5" s="204"/>
+      <c r="AB5" s="204"/>
+      <c r="AC5" s="204"/>
+      <c r="AD5" s="204"/>
+      <c r="AE5" s="204"/>
+      <c r="AF5" s="204"/>
+      <c r="AG5" s="204"/>
+      <c r="AH5" s="204"/>
+      <c r="AI5" s="204"/>
+      <c r="AJ5" s="204"/>
+      <c r="AK5" s="204"/>
+      <c r="AL5" s="204"/>
+      <c r="AM5" s="204"/>
+      <c r="AN5" s="204"/>
+      <c r="AO5" s="204"/>
+      <c r="AP5" s="204"/>
+      <c r="AQ5" s="204"/>
+      <c r="AR5" s="204"/>
+      <c r="AS5" s="204"/>
+      <c r="AT5" s="204"/>
+      <c r="AU5" s="205"/>
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
@@ -13229,38 +13433,38 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="188" t="s">
+      <c r="S7" s="193" t="s">
         <v>158</v>
       </c>
-      <c r="T7" s="189"/>
-      <c r="U7" s="189"/>
-      <c r="V7" s="189"/>
-      <c r="W7" s="189"/>
-      <c r="X7" s="189"/>
-      <c r="Y7" s="189"/>
-      <c r="Z7" s="189"/>
-      <c r="AA7" s="189"/>
-      <c r="AB7" s="189"/>
-      <c r="AC7" s="189"/>
-      <c r="AD7" s="190"/>
+      <c r="T7" s="194"/>
+      <c r="U7" s="194"/>
+      <c r="V7" s="194"/>
+      <c r="W7" s="194"/>
+      <c r="X7" s="194"/>
+      <c r="Y7" s="194"/>
+      <c r="Z7" s="194"/>
+      <c r="AA7" s="194"/>
+      <c r="AB7" s="194"/>
+      <c r="AC7" s="194"/>
+      <c r="AD7" s="195"/>
       <c r="AE7" s="39"/>
       <c r="AF7" s="39"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
-      <c r="AI7" s="188" t="s">
+      <c r="AI7" s="193" t="s">
         <v>159</v>
       </c>
-      <c r="AJ7" s="189"/>
-      <c r="AK7" s="189"/>
-      <c r="AL7" s="189"/>
-      <c r="AM7" s="189"/>
-      <c r="AN7" s="189"/>
-      <c r="AO7" s="189"/>
-      <c r="AP7" s="189"/>
-      <c r="AQ7" s="189"/>
-      <c r="AR7" s="189"/>
-      <c r="AS7" s="189"/>
-      <c r="AT7" s="190"/>
+      <c r="AJ7" s="194"/>
+      <c r="AK7" s="194"/>
+      <c r="AL7" s="194"/>
+      <c r="AM7" s="194"/>
+      <c r="AN7" s="194"/>
+      <c r="AO7" s="194"/>
+      <c r="AP7" s="194"/>
+      <c r="AQ7" s="194"/>
+      <c r="AR7" s="194"/>
+      <c r="AS7" s="194"/>
+      <c r="AT7" s="195"/>
       <c r="AU7" s="7"/>
       <c r="AV7" s="6"/>
       <c r="AW7" s="6"/>
@@ -13414,12 +13618,12 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
       <c r="K10" s="6"/>
@@ -13433,14 +13637,14 @@
       <c r="S10" s="5"/>
       <c r="T10" s="6"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="207" t="s">
+      <c r="V10" s="212" t="s">
         <v>153</v>
       </c>
-      <c r="W10" s="208"/>
-      <c r="X10" s="208"/>
-      <c r="Y10" s="208"/>
-      <c r="Z10" s="208"/>
-      <c r="AA10" s="209"/>
+      <c r="W10" s="213"/>
+      <c r="X10" s="213"/>
+      <c r="Y10" s="213"/>
+      <c r="Z10" s="213"/>
+      <c r="AA10" s="214"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="7"/>
@@ -13450,16 +13654,16 @@
       <c r="AH10" s="6"/>
       <c r="AI10" s="5"/>
       <c r="AJ10" s="6"/>
-      <c r="AK10" s="194" t="s">
+      <c r="AK10" s="199" t="s">
         <v>152</v>
       </c>
-      <c r="AL10" s="194"/>
-      <c r="AM10" s="194"/>
-      <c r="AN10" s="194"/>
-      <c r="AO10" s="194"/>
-      <c r="AP10" s="194"/>
-      <c r="AQ10" s="194"/>
-      <c r="AR10" s="194"/>
+      <c r="AL10" s="199"/>
+      <c r="AM10" s="199"/>
+      <c r="AN10" s="199"/>
+      <c r="AO10" s="199"/>
+      <c r="AP10" s="199"/>
+      <c r="AQ10" s="199"/>
+      <c r="AR10" s="199"/>
       <c r="AS10" s="6"/>
       <c r="AT10" s="7"/>
       <c r="AU10" s="7"/>
@@ -13500,14 +13704,14 @@
       <c r="S11" s="5"/>
       <c r="T11" s="6"/>
       <c r="U11" s="5"/>
-      <c r="V11" s="210" t="s">
+      <c r="V11" s="215" t="s">
         <v>155</v>
       </c>
-      <c r="W11" s="211"/>
-      <c r="X11" s="211"/>
-      <c r="Y11" s="211"/>
-      <c r="Z11" s="211"/>
-      <c r="AA11" s="212"/>
+      <c r="W11" s="216"/>
+      <c r="X11" s="216"/>
+      <c r="Y11" s="216"/>
+      <c r="Z11" s="216"/>
+      <c r="AA11" s="217"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="7"/>
@@ -13567,14 +13771,14 @@
       <c r="S12" s="5"/>
       <c r="T12" s="6"/>
       <c r="U12" s="5"/>
-      <c r="V12" s="201" t="s">
+      <c r="V12" s="206" t="s">
         <v>154</v>
       </c>
-      <c r="W12" s="202"/>
-      <c r="X12" s="202"/>
-      <c r="Y12" s="202"/>
-      <c r="Z12" s="202"/>
-      <c r="AA12" s="203"/>
+      <c r="W12" s="207"/>
+      <c r="X12" s="207"/>
+      <c r="Y12" s="207"/>
+      <c r="Z12" s="207"/>
+      <c r="AA12" s="208"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="7"/>
@@ -13632,14 +13836,14 @@
       <c r="S13" s="5"/>
       <c r="T13" s="6"/>
       <c r="U13" s="5"/>
-      <c r="V13" s="204" t="s">
+      <c r="V13" s="209" t="s">
         <v>156</v>
       </c>
-      <c r="W13" s="205"/>
-      <c r="X13" s="205"/>
-      <c r="Y13" s="205"/>
-      <c r="Z13" s="205"/>
-      <c r="AA13" s="206"/>
+      <c r="W13" s="210"/>
+      <c r="X13" s="210"/>
+      <c r="Y13" s="210"/>
+      <c r="Z13" s="210"/>
+      <c r="AA13" s="211"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="7"/>
@@ -14214,69 +14418,69 @@
       <c r="AS22" s="6"/>
     </row>
     <row r="23" spans="2:62" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="195" t="s">
+      <c r="B23" s="200" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="196"/>
-      <c r="D23" s="196"/>
-      <c r="E23" s="196"/>
-      <c r="F23" s="196"/>
-      <c r="G23" s="196"/>
-      <c r="H23" s="196"/>
-      <c r="I23" s="196"/>
-      <c r="J23" s="196"/>
-      <c r="K23" s="196"/>
-      <c r="L23" s="196"/>
-      <c r="M23" s="196"/>
-      <c r="N23" s="196"/>
-      <c r="O23" s="196"/>
-      <c r="P23" s="196"/>
-      <c r="Q23" s="196"/>
-      <c r="R23" s="196"/>
-      <c r="S23" s="196"/>
-      <c r="T23" s="196"/>
-      <c r="U23" s="196"/>
-      <c r="V23" s="196"/>
-      <c r="W23" s="196"/>
-      <c r="X23" s="196"/>
-      <c r="Y23" s="196"/>
-      <c r="Z23" s="196"/>
-      <c r="AA23" s="196"/>
-      <c r="AB23" s="196"/>
-      <c r="AC23" s="196"/>
-      <c r="AD23" s="196"/>
-      <c r="AE23" s="196"/>
-      <c r="AF23" s="196"/>
-      <c r="AG23" s="196"/>
-      <c r="AH23" s="196"/>
-      <c r="AI23" s="196"/>
-      <c r="AJ23" s="196"/>
-      <c r="AK23" s="196"/>
-      <c r="AL23" s="196"/>
-      <c r="AM23" s="196"/>
-      <c r="AN23" s="196"/>
-      <c r="AO23" s="196"/>
-      <c r="AP23" s="196"/>
-      <c r="AQ23" s="196"/>
-      <c r="AR23" s="196"/>
-      <c r="AS23" s="196"/>
-      <c r="AT23" s="196"/>
-      <c r="AU23" s="196"/>
-      <c r="AV23" s="196"/>
-      <c r="AW23" s="196"/>
-      <c r="AX23" s="196"/>
-      <c r="AY23" s="196"/>
-      <c r="AZ23" s="196"/>
-      <c r="BA23" s="196"/>
-      <c r="BB23" s="196"/>
-      <c r="BC23" s="196"/>
-      <c r="BD23" s="196"/>
-      <c r="BE23" s="196"/>
-      <c r="BF23" s="196"/>
-      <c r="BG23" s="196"/>
-      <c r="BH23" s="196"/>
-      <c r="BI23" s="196"/>
-      <c r="BJ23" s="197"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="201"/>
+      <c r="F23" s="201"/>
+      <c r="G23" s="201"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="201"/>
+      <c r="L23" s="201"/>
+      <c r="M23" s="201"/>
+      <c r="N23" s="201"/>
+      <c r="O23" s="201"/>
+      <c r="P23" s="201"/>
+      <c r="Q23" s="201"/>
+      <c r="R23" s="201"/>
+      <c r="S23" s="201"/>
+      <c r="T23" s="201"/>
+      <c r="U23" s="201"/>
+      <c r="V23" s="201"/>
+      <c r="W23" s="201"/>
+      <c r="X23" s="201"/>
+      <c r="Y23" s="201"/>
+      <c r="Z23" s="201"/>
+      <c r="AA23" s="201"/>
+      <c r="AB23" s="201"/>
+      <c r="AC23" s="201"/>
+      <c r="AD23" s="201"/>
+      <c r="AE23" s="201"/>
+      <c r="AF23" s="201"/>
+      <c r="AG23" s="201"/>
+      <c r="AH23" s="201"/>
+      <c r="AI23" s="201"/>
+      <c r="AJ23" s="201"/>
+      <c r="AK23" s="201"/>
+      <c r="AL23" s="201"/>
+      <c r="AM23" s="201"/>
+      <c r="AN23" s="201"/>
+      <c r="AO23" s="201"/>
+      <c r="AP23" s="201"/>
+      <c r="AQ23" s="201"/>
+      <c r="AR23" s="201"/>
+      <c r="AS23" s="201"/>
+      <c r="AT23" s="201"/>
+      <c r="AU23" s="201"/>
+      <c r="AV23" s="201"/>
+      <c r="AW23" s="201"/>
+      <c r="AX23" s="201"/>
+      <c r="AY23" s="201"/>
+      <c r="AZ23" s="201"/>
+      <c r="BA23" s="201"/>
+      <c r="BB23" s="201"/>
+      <c r="BC23" s="201"/>
+      <c r="BD23" s="201"/>
+      <c r="BE23" s="201"/>
+      <c r="BF23" s="201"/>
+      <c r="BG23" s="201"/>
+      <c r="BH23" s="201"/>
+      <c r="BI23" s="201"/>
+      <c r="BJ23" s="202"/>
     </row>
     <row r="24" spans="2:62" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
@@ -14421,38 +14625,38 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
-      <c r="R26" s="198" t="s">
+      <c r="R26" s="203" t="s">
         <v>157</v>
       </c>
-      <c r="S26" s="199"/>
-      <c r="T26" s="199"/>
-      <c r="U26" s="199"/>
-      <c r="V26" s="199"/>
-      <c r="W26" s="199"/>
-      <c r="X26" s="199"/>
-      <c r="Y26" s="199"/>
-      <c r="Z26" s="199"/>
-      <c r="AA26" s="199"/>
-      <c r="AB26" s="199"/>
-      <c r="AC26" s="199"/>
-      <c r="AD26" s="199"/>
-      <c r="AE26" s="199"/>
-      <c r="AF26" s="199"/>
-      <c r="AG26" s="199"/>
-      <c r="AH26" s="199"/>
-      <c r="AI26" s="199"/>
-      <c r="AJ26" s="199"/>
-      <c r="AK26" s="199"/>
-      <c r="AL26" s="199"/>
-      <c r="AM26" s="199"/>
-      <c r="AN26" s="199"/>
-      <c r="AO26" s="199"/>
-      <c r="AP26" s="199"/>
-      <c r="AQ26" s="199"/>
-      <c r="AR26" s="199"/>
-      <c r="AS26" s="199"/>
-      <c r="AT26" s="199"/>
-      <c r="AU26" s="200"/>
+      <c r="S26" s="204"/>
+      <c r="T26" s="204"/>
+      <c r="U26" s="204"/>
+      <c r="V26" s="204"/>
+      <c r="W26" s="204"/>
+      <c r="X26" s="204"/>
+      <c r="Y26" s="204"/>
+      <c r="Z26" s="204"/>
+      <c r="AA26" s="204"/>
+      <c r="AB26" s="204"/>
+      <c r="AC26" s="204"/>
+      <c r="AD26" s="204"/>
+      <c r="AE26" s="204"/>
+      <c r="AF26" s="204"/>
+      <c r="AG26" s="204"/>
+      <c r="AH26" s="204"/>
+      <c r="AI26" s="204"/>
+      <c r="AJ26" s="204"/>
+      <c r="AK26" s="204"/>
+      <c r="AL26" s="204"/>
+      <c r="AM26" s="204"/>
+      <c r="AN26" s="204"/>
+      <c r="AO26" s="204"/>
+      <c r="AP26" s="204"/>
+      <c r="AQ26" s="204"/>
+      <c r="AR26" s="204"/>
+      <c r="AS26" s="204"/>
+      <c r="AT26" s="204"/>
+      <c r="AU26" s="205"/>
       <c r="AV26" s="6"/>
       <c r="AW26" s="6"/>
       <c r="AX26" s="6"/>
@@ -14550,38 +14754,38 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="5"/>
-      <c r="S28" s="188" t="s">
+      <c r="S28" s="193" t="s">
         <v>158</v>
       </c>
-      <c r="T28" s="189"/>
-      <c r="U28" s="189"/>
-      <c r="V28" s="189"/>
-      <c r="W28" s="189"/>
-      <c r="X28" s="189"/>
-      <c r="Y28" s="189"/>
-      <c r="Z28" s="189"/>
-      <c r="AA28" s="189"/>
-      <c r="AB28" s="189"/>
-      <c r="AC28" s="189"/>
-      <c r="AD28" s="190"/>
+      <c r="T28" s="194"/>
+      <c r="U28" s="194"/>
+      <c r="V28" s="194"/>
+      <c r="W28" s="194"/>
+      <c r="X28" s="194"/>
+      <c r="Y28" s="194"/>
+      <c r="Z28" s="194"/>
+      <c r="AA28" s="194"/>
+      <c r="AB28" s="194"/>
+      <c r="AC28" s="194"/>
+      <c r="AD28" s="195"/>
       <c r="AE28" s="39"/>
       <c r="AF28" s="39"/>
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
-      <c r="AI28" s="188" t="s">
+      <c r="AI28" s="193" t="s">
         <v>159</v>
       </c>
-      <c r="AJ28" s="189"/>
-      <c r="AK28" s="189"/>
-      <c r="AL28" s="189"/>
-      <c r="AM28" s="189"/>
-      <c r="AN28" s="189"/>
-      <c r="AO28" s="189"/>
-      <c r="AP28" s="189"/>
-      <c r="AQ28" s="189"/>
-      <c r="AR28" s="189"/>
-      <c r="AS28" s="189"/>
-      <c r="AT28" s="190"/>
+      <c r="AJ28" s="194"/>
+      <c r="AK28" s="194"/>
+      <c r="AL28" s="194"/>
+      <c r="AM28" s="194"/>
+      <c r="AN28" s="194"/>
+      <c r="AO28" s="194"/>
+      <c r="AP28" s="194"/>
+      <c r="AQ28" s="194"/>
+      <c r="AR28" s="194"/>
+      <c r="AS28" s="194"/>
+      <c r="AT28" s="195"/>
       <c r="AU28" s="7"/>
       <c r="AV28" s="6"/>
       <c r="AW28" s="6"/>
@@ -14687,17 +14891,17 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="191" t="s">
+      <c r="T30" s="196" t="s">
         <v>166</v>
       </c>
-      <c r="U30" s="192"/>
-      <c r="V30" s="192"/>
-      <c r="W30" s="192"/>
-      <c r="X30" s="192"/>
-      <c r="Y30" s="192"/>
-      <c r="Z30" s="192"/>
-      <c r="AA30" s="192"/>
-      <c r="AB30" s="193"/>
+      <c r="U30" s="197"/>
+      <c r="V30" s="197"/>
+      <c r="W30" s="197"/>
+      <c r="X30" s="197"/>
+      <c r="Y30" s="197"/>
+      <c r="Z30" s="197"/>
+      <c r="AA30" s="197"/>
+      <c r="AB30" s="198"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="6"/>
@@ -14737,12 +14941,12 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="101" t="s">
+      <c r="E31" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
       <c r="I31" s="6"/>
       <c r="J31" s="7"/>
       <c r="K31" s="6"/>
@@ -14754,17 +14958,17 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="133" t="s">
+      <c r="T31" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="U31" s="134"/>
-      <c r="V31" s="134"/>
-      <c r="W31" s="134"/>
-      <c r="X31" s="134"/>
-      <c r="Y31" s="134"/>
-      <c r="Z31" s="134"/>
-      <c r="AA31" s="134"/>
-      <c r="AB31" s="135"/>
+      <c r="U31" s="139"/>
+      <c r="V31" s="139"/>
+      <c r="W31" s="139"/>
+      <c r="X31" s="139"/>
+      <c r="Y31" s="139"/>
+      <c r="Z31" s="139"/>
+      <c r="AA31" s="139"/>
+      <c r="AB31" s="140"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="7"/>
       <c r="AE31" s="6"/>
@@ -14773,16 +14977,16 @@
       <c r="AH31" s="6"/>
       <c r="AI31" s="5"/>
       <c r="AJ31" s="6"/>
-      <c r="AK31" s="194" t="s">
+      <c r="AK31" s="199" t="s">
         <v>152</v>
       </c>
-      <c r="AL31" s="194"/>
-      <c r="AM31" s="194"/>
-      <c r="AN31" s="194"/>
-      <c r="AO31" s="194"/>
-      <c r="AP31" s="194"/>
-      <c r="AQ31" s="194"/>
-      <c r="AR31" s="194"/>
+      <c r="AL31" s="199"/>
+      <c r="AM31" s="199"/>
+      <c r="AN31" s="199"/>
+      <c r="AO31" s="199"/>
+      <c r="AP31" s="199"/>
+      <c r="AQ31" s="199"/>
+      <c r="AR31" s="199"/>
       <c r="AS31" s="6"/>
       <c r="AT31" s="7"/>
       <c r="AU31" s="7"/>
@@ -14947,17 +15151,17 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
-      <c r="T34" s="185" t="s">
+      <c r="T34" s="190" t="s">
         <v>156</v>
       </c>
-      <c r="U34" s="186"/>
-      <c r="V34" s="186"/>
-      <c r="W34" s="186"/>
-      <c r="X34" s="186"/>
-      <c r="Y34" s="186"/>
-      <c r="Z34" s="186"/>
-      <c r="AA34" s="186"/>
-      <c r="AB34" s="187"/>
+      <c r="U34" s="191"/>
+      <c r="V34" s="191"/>
+      <c r="W34" s="191"/>
+      <c r="X34" s="191"/>
+      <c r="Y34" s="191"/>
+      <c r="Z34" s="191"/>
+      <c r="AA34" s="191"/>
+      <c r="AB34" s="192"/>
       <c r="AC34" s="6"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="6"/>
@@ -15014,17 +15218,17 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
-      <c r="T35" s="126" t="s">
+      <c r="T35" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="U35" s="127"/>
-      <c r="V35" s="127"/>
-      <c r="W35" s="127"/>
-      <c r="X35" s="127"/>
-      <c r="Y35" s="127"/>
-      <c r="Z35" s="127"/>
-      <c r="AA35" s="127"/>
-      <c r="AB35" s="128"/>
+      <c r="U35" s="132"/>
+      <c r="V35" s="132"/>
+      <c r="W35" s="132"/>
+      <c r="X35" s="132"/>
+      <c r="Y35" s="132"/>
+      <c r="Z35" s="132"/>
+      <c r="AA35" s="132"/>
+      <c r="AB35" s="133"/>
       <c r="AC35" s="6"/>
       <c r="AD35" s="7"/>
       <c r="AE35" s="6"/>
@@ -15442,69 +15646,69 @@
     </row>
     <row r="43" spans="2:62" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="2:62" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="195" t="s">
+      <c r="B44" s="200" t="s">
         <v>167</v>
       </c>
-      <c r="C44" s="196"/>
-      <c r="D44" s="196"/>
-      <c r="E44" s="196"/>
-      <c r="F44" s="196"/>
-      <c r="G44" s="196"/>
-      <c r="H44" s="196"/>
-      <c r="I44" s="196"/>
-      <c r="J44" s="196"/>
-      <c r="K44" s="196"/>
-      <c r="L44" s="196"/>
-      <c r="M44" s="196"/>
-      <c r="N44" s="196"/>
-      <c r="O44" s="196"/>
-      <c r="P44" s="196"/>
-      <c r="Q44" s="196"/>
-      <c r="R44" s="196"/>
-      <c r="S44" s="196"/>
-      <c r="T44" s="196"/>
-      <c r="U44" s="196"/>
-      <c r="V44" s="196"/>
-      <c r="W44" s="196"/>
-      <c r="X44" s="196"/>
-      <c r="Y44" s="196"/>
-      <c r="Z44" s="196"/>
-      <c r="AA44" s="196"/>
-      <c r="AB44" s="196"/>
-      <c r="AC44" s="196"/>
-      <c r="AD44" s="196"/>
-      <c r="AE44" s="196"/>
-      <c r="AF44" s="196"/>
-      <c r="AG44" s="196"/>
-      <c r="AH44" s="196"/>
-      <c r="AI44" s="196"/>
-      <c r="AJ44" s="196"/>
-      <c r="AK44" s="196"/>
-      <c r="AL44" s="196"/>
-      <c r="AM44" s="196"/>
-      <c r="AN44" s="196"/>
-      <c r="AO44" s="196"/>
-      <c r="AP44" s="196"/>
-      <c r="AQ44" s="196"/>
-      <c r="AR44" s="196"/>
-      <c r="AS44" s="196"/>
-      <c r="AT44" s="196"/>
-      <c r="AU44" s="196"/>
-      <c r="AV44" s="196"/>
-      <c r="AW44" s="196"/>
-      <c r="AX44" s="196"/>
-      <c r="AY44" s="196"/>
-      <c r="AZ44" s="196"/>
-      <c r="BA44" s="196"/>
-      <c r="BB44" s="196"/>
-      <c r="BC44" s="196"/>
-      <c r="BD44" s="196"/>
-      <c r="BE44" s="196"/>
-      <c r="BF44" s="196"/>
-      <c r="BG44" s="196"/>
-      <c r="BH44" s="196"/>
-      <c r="BI44" s="196"/>
-      <c r="BJ44" s="197"/>
+      <c r="C44" s="201"/>
+      <c r="D44" s="201"/>
+      <c r="E44" s="201"/>
+      <c r="F44" s="201"/>
+      <c r="G44" s="201"/>
+      <c r="H44" s="201"/>
+      <c r="I44" s="201"/>
+      <c r="J44" s="201"/>
+      <c r="K44" s="201"/>
+      <c r="L44" s="201"/>
+      <c r="M44" s="201"/>
+      <c r="N44" s="201"/>
+      <c r="O44" s="201"/>
+      <c r="P44" s="201"/>
+      <c r="Q44" s="201"/>
+      <c r="R44" s="201"/>
+      <c r="S44" s="201"/>
+      <c r="T44" s="201"/>
+      <c r="U44" s="201"/>
+      <c r="V44" s="201"/>
+      <c r="W44" s="201"/>
+      <c r="X44" s="201"/>
+      <c r="Y44" s="201"/>
+      <c r="Z44" s="201"/>
+      <c r="AA44" s="201"/>
+      <c r="AB44" s="201"/>
+      <c r="AC44" s="201"/>
+      <c r="AD44" s="201"/>
+      <c r="AE44" s="201"/>
+      <c r="AF44" s="201"/>
+      <c r="AG44" s="201"/>
+      <c r="AH44" s="201"/>
+      <c r="AI44" s="201"/>
+      <c r="AJ44" s="201"/>
+      <c r="AK44" s="201"/>
+      <c r="AL44" s="201"/>
+      <c r="AM44" s="201"/>
+      <c r="AN44" s="201"/>
+      <c r="AO44" s="201"/>
+      <c r="AP44" s="201"/>
+      <c r="AQ44" s="201"/>
+      <c r="AR44" s="201"/>
+      <c r="AS44" s="201"/>
+      <c r="AT44" s="201"/>
+      <c r="AU44" s="201"/>
+      <c r="AV44" s="201"/>
+      <c r="AW44" s="201"/>
+      <c r="AX44" s="201"/>
+      <c r="AY44" s="201"/>
+      <c r="AZ44" s="201"/>
+      <c r="BA44" s="201"/>
+      <c r="BB44" s="201"/>
+      <c r="BC44" s="201"/>
+      <c r="BD44" s="201"/>
+      <c r="BE44" s="201"/>
+      <c r="BF44" s="201"/>
+      <c r="BG44" s="201"/>
+      <c r="BH44" s="201"/>
+      <c r="BI44" s="201"/>
+      <c r="BJ44" s="202"/>
     </row>
     <row r="45" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
@@ -15649,38 +15853,38 @@
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
-      <c r="R47" s="198" t="s">
+      <c r="R47" s="203" t="s">
         <v>157</v>
       </c>
-      <c r="S47" s="199"/>
-      <c r="T47" s="199"/>
-      <c r="U47" s="199"/>
-      <c r="V47" s="199"/>
-      <c r="W47" s="199"/>
-      <c r="X47" s="199"/>
-      <c r="Y47" s="199"/>
-      <c r="Z47" s="199"/>
-      <c r="AA47" s="199"/>
-      <c r="AB47" s="199"/>
-      <c r="AC47" s="199"/>
-      <c r="AD47" s="199"/>
-      <c r="AE47" s="199"/>
-      <c r="AF47" s="199"/>
-      <c r="AG47" s="199"/>
-      <c r="AH47" s="199"/>
-      <c r="AI47" s="199"/>
-      <c r="AJ47" s="199"/>
-      <c r="AK47" s="199"/>
-      <c r="AL47" s="199"/>
-      <c r="AM47" s="199"/>
-      <c r="AN47" s="199"/>
-      <c r="AO47" s="199"/>
-      <c r="AP47" s="199"/>
-      <c r="AQ47" s="199"/>
-      <c r="AR47" s="199"/>
-      <c r="AS47" s="199"/>
-      <c r="AT47" s="199"/>
-      <c r="AU47" s="200"/>
+      <c r="S47" s="204"/>
+      <c r="T47" s="204"/>
+      <c r="U47" s="204"/>
+      <c r="V47" s="204"/>
+      <c r="W47" s="204"/>
+      <c r="X47" s="204"/>
+      <c r="Y47" s="204"/>
+      <c r="Z47" s="204"/>
+      <c r="AA47" s="204"/>
+      <c r="AB47" s="204"/>
+      <c r="AC47" s="204"/>
+      <c r="AD47" s="204"/>
+      <c r="AE47" s="204"/>
+      <c r="AF47" s="204"/>
+      <c r="AG47" s="204"/>
+      <c r="AH47" s="204"/>
+      <c r="AI47" s="204"/>
+      <c r="AJ47" s="204"/>
+      <c r="AK47" s="204"/>
+      <c r="AL47" s="204"/>
+      <c r="AM47" s="204"/>
+      <c r="AN47" s="204"/>
+      <c r="AO47" s="204"/>
+      <c r="AP47" s="204"/>
+      <c r="AQ47" s="204"/>
+      <c r="AR47" s="204"/>
+      <c r="AS47" s="204"/>
+      <c r="AT47" s="204"/>
+      <c r="AU47" s="205"/>
       <c r="AV47" s="6"/>
       <c r="AW47" s="6"/>
       <c r="AX47" s="6"/>
@@ -15778,38 +15982,38 @@
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="5"/>
-      <c r="S49" s="188" t="s">
+      <c r="S49" s="193" t="s">
         <v>158</v>
       </c>
-      <c r="T49" s="189"/>
-      <c r="U49" s="189"/>
-      <c r="V49" s="189"/>
-      <c r="W49" s="189"/>
-      <c r="X49" s="189"/>
-      <c r="Y49" s="189"/>
-      <c r="Z49" s="189"/>
-      <c r="AA49" s="189"/>
-      <c r="AB49" s="189"/>
-      <c r="AC49" s="189"/>
-      <c r="AD49" s="190"/>
+      <c r="T49" s="194"/>
+      <c r="U49" s="194"/>
+      <c r="V49" s="194"/>
+      <c r="W49" s="194"/>
+      <c r="X49" s="194"/>
+      <c r="Y49" s="194"/>
+      <c r="Z49" s="194"/>
+      <c r="AA49" s="194"/>
+      <c r="AB49" s="194"/>
+      <c r="AC49" s="194"/>
+      <c r="AD49" s="195"/>
       <c r="AE49" s="39"/>
       <c r="AF49" s="39"/>
       <c r="AG49" s="6"/>
       <c r="AH49" s="6"/>
-      <c r="AI49" s="188" t="s">
+      <c r="AI49" s="193" t="s">
         <v>159</v>
       </c>
-      <c r="AJ49" s="189"/>
-      <c r="AK49" s="189"/>
-      <c r="AL49" s="189"/>
-      <c r="AM49" s="189"/>
-      <c r="AN49" s="189"/>
-      <c r="AO49" s="189"/>
-      <c r="AP49" s="189"/>
-      <c r="AQ49" s="189"/>
-      <c r="AR49" s="189"/>
-      <c r="AS49" s="189"/>
-      <c r="AT49" s="190"/>
+      <c r="AJ49" s="194"/>
+      <c r="AK49" s="194"/>
+      <c r="AL49" s="194"/>
+      <c r="AM49" s="194"/>
+      <c r="AN49" s="194"/>
+      <c r="AO49" s="194"/>
+      <c r="AP49" s="194"/>
+      <c r="AQ49" s="194"/>
+      <c r="AR49" s="194"/>
+      <c r="AS49" s="194"/>
+      <c r="AT49" s="195"/>
       <c r="AU49" s="7"/>
       <c r="AV49" s="6"/>
       <c r="AW49" s="6"/>
@@ -15915,17 +16119,17 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
-      <c r="T51" s="191" t="s">
+      <c r="T51" s="196" t="s">
         <v>166</v>
       </c>
-      <c r="U51" s="192"/>
-      <c r="V51" s="192"/>
-      <c r="W51" s="192"/>
-      <c r="X51" s="192"/>
-      <c r="Y51" s="192"/>
-      <c r="Z51" s="192"/>
-      <c r="AA51" s="192"/>
-      <c r="AB51" s="193"/>
+      <c r="U51" s="197"/>
+      <c r="V51" s="197"/>
+      <c r="W51" s="197"/>
+      <c r="X51" s="197"/>
+      <c r="Y51" s="197"/>
+      <c r="Z51" s="197"/>
+      <c r="AA51" s="197"/>
+      <c r="AB51" s="198"/>
       <c r="AC51" s="6"/>
       <c r="AD51" s="7"/>
       <c r="AE51" s="6"/>
@@ -15965,12 +16169,12 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="101" t="s">
+      <c r="E52" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="F52" s="101"/>
-      <c r="G52" s="101"/>
-      <c r="H52" s="101"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
       <c r="I52" s="6"/>
       <c r="J52" s="7"/>
       <c r="K52" s="6"/>
@@ -15982,17 +16186,17 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
-      <c r="T52" s="133" t="s">
+      <c r="T52" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="U52" s="134"/>
-      <c r="V52" s="134"/>
-      <c r="W52" s="134"/>
-      <c r="X52" s="134"/>
-      <c r="Y52" s="134"/>
-      <c r="Z52" s="134"/>
-      <c r="AA52" s="134"/>
-      <c r="AB52" s="135"/>
+      <c r="U52" s="139"/>
+      <c r="V52" s="139"/>
+      <c r="W52" s="139"/>
+      <c r="X52" s="139"/>
+      <c r="Y52" s="139"/>
+      <c r="Z52" s="139"/>
+      <c r="AA52" s="139"/>
+      <c r="AB52" s="140"/>
       <c r="AC52" s="6"/>
       <c r="AD52" s="7"/>
       <c r="AE52" s="6"/>
@@ -16001,16 +16205,16 @@
       <c r="AH52" s="6"/>
       <c r="AI52" s="5"/>
       <c r="AJ52" s="6"/>
-      <c r="AK52" s="194" t="s">
+      <c r="AK52" s="199" t="s">
         <v>152</v>
       </c>
-      <c r="AL52" s="194"/>
-      <c r="AM52" s="194"/>
-      <c r="AN52" s="194"/>
-      <c r="AO52" s="194"/>
-      <c r="AP52" s="194"/>
-      <c r="AQ52" s="194"/>
-      <c r="AR52" s="194"/>
+      <c r="AL52" s="199"/>
+      <c r="AM52" s="199"/>
+      <c r="AN52" s="199"/>
+      <c r="AO52" s="199"/>
+      <c r="AP52" s="199"/>
+      <c r="AQ52" s="199"/>
+      <c r="AR52" s="199"/>
       <c r="AS52" s="6"/>
       <c r="AT52" s="7"/>
       <c r="AU52" s="7"/>
@@ -16175,17 +16379,17 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
-      <c r="T55" s="185" t="s">
+      <c r="T55" s="190" t="s">
         <v>156</v>
       </c>
-      <c r="U55" s="186"/>
-      <c r="V55" s="186"/>
-      <c r="W55" s="186"/>
-      <c r="X55" s="186"/>
-      <c r="Y55" s="186"/>
-      <c r="Z55" s="186"/>
-      <c r="AA55" s="186"/>
-      <c r="AB55" s="187"/>
+      <c r="U55" s="191"/>
+      <c r="V55" s="191"/>
+      <c r="W55" s="191"/>
+      <c r="X55" s="191"/>
+      <c r="Y55" s="191"/>
+      <c r="Z55" s="191"/>
+      <c r="AA55" s="191"/>
+      <c r="AB55" s="192"/>
       <c r="AC55" s="6"/>
       <c r="AD55" s="7"/>
       <c r="AE55" s="6"/>
@@ -16242,17 +16446,17 @@
       <c r="Q56" s="6"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
-      <c r="T56" s="126" t="s">
+      <c r="T56" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="U56" s="127"/>
-      <c r="V56" s="127"/>
-      <c r="W56" s="127"/>
-      <c r="X56" s="127"/>
-      <c r="Y56" s="127"/>
-      <c r="Z56" s="127"/>
-      <c r="AA56" s="127"/>
-      <c r="AB56" s="128"/>
+      <c r="U56" s="132"/>
+      <c r="V56" s="132"/>
+      <c r="W56" s="132"/>
+      <c r="X56" s="132"/>
+      <c r="Y56" s="132"/>
+      <c r="Z56" s="132"/>
+      <c r="AA56" s="132"/>
+      <c r="AB56" s="133"/>
       <c r="AC56" s="6"/>
       <c r="AD56" s="7"/>
       <c r="AE56" s="6"/>
@@ -16670,69 +16874,69 @@
     </row>
     <row r="64" spans="2:62" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="65" spans="2:62" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="195" t="s">
+      <c r="B65" s="200" t="s">
         <v>241</v>
       </c>
-      <c r="C65" s="196"/>
-      <c r="D65" s="196"/>
-      <c r="E65" s="196"/>
-      <c r="F65" s="196"/>
-      <c r="G65" s="196"/>
-      <c r="H65" s="196"/>
-      <c r="I65" s="196"/>
-      <c r="J65" s="196"/>
-      <c r="K65" s="196"/>
-      <c r="L65" s="196"/>
-      <c r="M65" s="196"/>
-      <c r="N65" s="196"/>
-      <c r="O65" s="196"/>
-      <c r="P65" s="196"/>
-      <c r="Q65" s="196"/>
-      <c r="R65" s="196"/>
-      <c r="S65" s="196"/>
-      <c r="T65" s="196"/>
-      <c r="U65" s="196"/>
-      <c r="V65" s="196"/>
-      <c r="W65" s="196"/>
-      <c r="X65" s="196"/>
-      <c r="Y65" s="196"/>
-      <c r="Z65" s="196"/>
-      <c r="AA65" s="196"/>
-      <c r="AB65" s="196"/>
-      <c r="AC65" s="196"/>
-      <c r="AD65" s="196"/>
-      <c r="AE65" s="196"/>
-      <c r="AF65" s="196"/>
-      <c r="AG65" s="196"/>
-      <c r="AH65" s="196"/>
-      <c r="AI65" s="196"/>
-      <c r="AJ65" s="196"/>
-      <c r="AK65" s="196"/>
-      <c r="AL65" s="196"/>
-      <c r="AM65" s="196"/>
-      <c r="AN65" s="196"/>
-      <c r="AO65" s="196"/>
-      <c r="AP65" s="196"/>
-      <c r="AQ65" s="196"/>
-      <c r="AR65" s="196"/>
-      <c r="AS65" s="196"/>
-      <c r="AT65" s="196"/>
-      <c r="AU65" s="196"/>
-      <c r="AV65" s="196"/>
-      <c r="AW65" s="196"/>
-      <c r="AX65" s="196"/>
-      <c r="AY65" s="196"/>
-      <c r="AZ65" s="196"/>
-      <c r="BA65" s="196"/>
-      <c r="BB65" s="196"/>
-      <c r="BC65" s="196"/>
-      <c r="BD65" s="196"/>
-      <c r="BE65" s="196"/>
-      <c r="BF65" s="196"/>
-      <c r="BG65" s="196"/>
-      <c r="BH65" s="196"/>
-      <c r="BI65" s="196"/>
-      <c r="BJ65" s="197"/>
+      <c r="C65" s="201"/>
+      <c r="D65" s="201"/>
+      <c r="E65" s="201"/>
+      <c r="F65" s="201"/>
+      <c r="G65" s="201"/>
+      <c r="H65" s="201"/>
+      <c r="I65" s="201"/>
+      <c r="J65" s="201"/>
+      <c r="K65" s="201"/>
+      <c r="L65" s="201"/>
+      <c r="M65" s="201"/>
+      <c r="N65" s="201"/>
+      <c r="O65" s="201"/>
+      <c r="P65" s="201"/>
+      <c r="Q65" s="201"/>
+      <c r="R65" s="201"/>
+      <c r="S65" s="201"/>
+      <c r="T65" s="201"/>
+      <c r="U65" s="201"/>
+      <c r="V65" s="201"/>
+      <c r="W65" s="201"/>
+      <c r="X65" s="201"/>
+      <c r="Y65" s="201"/>
+      <c r="Z65" s="201"/>
+      <c r="AA65" s="201"/>
+      <c r="AB65" s="201"/>
+      <c r="AC65" s="201"/>
+      <c r="AD65" s="201"/>
+      <c r="AE65" s="201"/>
+      <c r="AF65" s="201"/>
+      <c r="AG65" s="201"/>
+      <c r="AH65" s="201"/>
+      <c r="AI65" s="201"/>
+      <c r="AJ65" s="201"/>
+      <c r="AK65" s="201"/>
+      <c r="AL65" s="201"/>
+      <c r="AM65" s="201"/>
+      <c r="AN65" s="201"/>
+      <c r="AO65" s="201"/>
+      <c r="AP65" s="201"/>
+      <c r="AQ65" s="201"/>
+      <c r="AR65" s="201"/>
+      <c r="AS65" s="201"/>
+      <c r="AT65" s="201"/>
+      <c r="AU65" s="201"/>
+      <c r="AV65" s="201"/>
+      <c r="AW65" s="201"/>
+      <c r="AX65" s="201"/>
+      <c r="AY65" s="201"/>
+      <c r="AZ65" s="201"/>
+      <c r="BA65" s="201"/>
+      <c r="BB65" s="201"/>
+      <c r="BC65" s="201"/>
+      <c r="BD65" s="201"/>
+      <c r="BE65" s="201"/>
+      <c r="BF65" s="201"/>
+      <c r="BG65" s="201"/>
+      <c r="BH65" s="201"/>
+      <c r="BI65" s="201"/>
+      <c r="BJ65" s="202"/>
     </row>
     <row r="66" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
@@ -16877,38 +17081,38 @@
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
-      <c r="R68" s="198" t="s">
+      <c r="R68" s="203" t="s">
         <v>157</v>
       </c>
-      <c r="S68" s="199"/>
-      <c r="T68" s="199"/>
-      <c r="U68" s="199"/>
-      <c r="V68" s="199"/>
-      <c r="W68" s="199"/>
-      <c r="X68" s="199"/>
-      <c r="Y68" s="199"/>
-      <c r="Z68" s="199"/>
-      <c r="AA68" s="199"/>
-      <c r="AB68" s="199"/>
-      <c r="AC68" s="199"/>
-      <c r="AD68" s="199"/>
-      <c r="AE68" s="199"/>
-      <c r="AF68" s="199"/>
-      <c r="AG68" s="199"/>
-      <c r="AH68" s="199"/>
-      <c r="AI68" s="199"/>
-      <c r="AJ68" s="199"/>
-      <c r="AK68" s="199"/>
-      <c r="AL68" s="199"/>
-      <c r="AM68" s="199"/>
-      <c r="AN68" s="199"/>
-      <c r="AO68" s="199"/>
-      <c r="AP68" s="199"/>
-      <c r="AQ68" s="199"/>
-      <c r="AR68" s="199"/>
-      <c r="AS68" s="199"/>
-      <c r="AT68" s="199"/>
-      <c r="AU68" s="200"/>
+      <c r="S68" s="204"/>
+      <c r="T68" s="204"/>
+      <c r="U68" s="204"/>
+      <c r="V68" s="204"/>
+      <c r="W68" s="204"/>
+      <c r="X68" s="204"/>
+      <c r="Y68" s="204"/>
+      <c r="Z68" s="204"/>
+      <c r="AA68" s="204"/>
+      <c r="AB68" s="204"/>
+      <c r="AC68" s="204"/>
+      <c r="AD68" s="204"/>
+      <c r="AE68" s="204"/>
+      <c r="AF68" s="204"/>
+      <c r="AG68" s="204"/>
+      <c r="AH68" s="204"/>
+      <c r="AI68" s="204"/>
+      <c r="AJ68" s="204"/>
+      <c r="AK68" s="204"/>
+      <c r="AL68" s="204"/>
+      <c r="AM68" s="204"/>
+      <c r="AN68" s="204"/>
+      <c r="AO68" s="204"/>
+      <c r="AP68" s="204"/>
+      <c r="AQ68" s="204"/>
+      <c r="AR68" s="204"/>
+      <c r="AS68" s="204"/>
+      <c r="AT68" s="204"/>
+      <c r="AU68" s="205"/>
       <c r="AV68" s="6"/>
       <c r="AW68" s="6"/>
       <c r="AX68" s="6"/>
@@ -17006,38 +17210,38 @@
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
       <c r="R70" s="5"/>
-      <c r="S70" s="188" t="s">
+      <c r="S70" s="193" t="s">
         <v>158</v>
       </c>
-      <c r="T70" s="189"/>
-      <c r="U70" s="189"/>
-      <c r="V70" s="189"/>
-      <c r="W70" s="189"/>
-      <c r="X70" s="189"/>
-      <c r="Y70" s="189"/>
-      <c r="Z70" s="189"/>
-      <c r="AA70" s="189"/>
-      <c r="AB70" s="189"/>
-      <c r="AC70" s="189"/>
-      <c r="AD70" s="190"/>
+      <c r="T70" s="194"/>
+      <c r="U70" s="194"/>
+      <c r="V70" s="194"/>
+      <c r="W70" s="194"/>
+      <c r="X70" s="194"/>
+      <c r="Y70" s="194"/>
+      <c r="Z70" s="194"/>
+      <c r="AA70" s="194"/>
+      <c r="AB70" s="194"/>
+      <c r="AC70" s="194"/>
+      <c r="AD70" s="195"/>
       <c r="AE70" s="39"/>
       <c r="AF70" s="39"/>
       <c r="AG70" s="6"/>
       <c r="AH70" s="6"/>
-      <c r="AI70" s="188" t="s">
+      <c r="AI70" s="193" t="s">
         <v>159</v>
       </c>
-      <c r="AJ70" s="189"/>
-      <c r="AK70" s="189"/>
-      <c r="AL70" s="189"/>
-      <c r="AM70" s="189"/>
-      <c r="AN70" s="189"/>
-      <c r="AO70" s="189"/>
-      <c r="AP70" s="189"/>
-      <c r="AQ70" s="189"/>
-      <c r="AR70" s="189"/>
-      <c r="AS70" s="189"/>
-      <c r="AT70" s="190"/>
+      <c r="AJ70" s="194"/>
+      <c r="AK70" s="194"/>
+      <c r="AL70" s="194"/>
+      <c r="AM70" s="194"/>
+      <c r="AN70" s="194"/>
+      <c r="AO70" s="194"/>
+      <c r="AP70" s="194"/>
+      <c r="AQ70" s="194"/>
+      <c r="AR70" s="194"/>
+      <c r="AS70" s="194"/>
+      <c r="AT70" s="195"/>
       <c r="AU70" s="7"/>
       <c r="AV70" s="6"/>
       <c r="AW70" s="6"/>
@@ -17143,17 +17347,17 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
-      <c r="T72" s="191" t="s">
+      <c r="T72" s="196" t="s">
         <v>166</v>
       </c>
-      <c r="U72" s="192"/>
-      <c r="V72" s="192"/>
-      <c r="W72" s="192"/>
-      <c r="X72" s="192"/>
-      <c r="Y72" s="192"/>
-      <c r="Z72" s="192"/>
-      <c r="AA72" s="192"/>
-      <c r="AB72" s="193"/>
+      <c r="U72" s="197"/>
+      <c r="V72" s="197"/>
+      <c r="W72" s="197"/>
+      <c r="X72" s="197"/>
+      <c r="Y72" s="197"/>
+      <c r="Z72" s="197"/>
+      <c r="AA72" s="197"/>
+      <c r="AB72" s="198"/>
       <c r="AC72" s="6"/>
       <c r="AD72" s="7"/>
       <c r="AE72" s="6"/>
@@ -17193,12 +17397,12 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="101" t="s">
+      <c r="E73" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="F73" s="101"/>
-      <c r="G73" s="101"/>
-      <c r="H73" s="101"/>
+      <c r="F73" s="106"/>
+      <c r="G73" s="106"/>
+      <c r="H73" s="106"/>
       <c r="I73" s="6"/>
       <c r="J73" s="7"/>
       <c r="K73" s="6"/>
@@ -17210,17 +17414,17 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
-      <c r="T73" s="133" t="s">
+      <c r="T73" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="U73" s="134"/>
-      <c r="V73" s="134"/>
-      <c r="W73" s="134"/>
-      <c r="X73" s="134"/>
-      <c r="Y73" s="134"/>
-      <c r="Z73" s="134"/>
-      <c r="AA73" s="134"/>
-      <c r="AB73" s="135"/>
+      <c r="U73" s="139"/>
+      <c r="V73" s="139"/>
+      <c r="W73" s="139"/>
+      <c r="X73" s="139"/>
+      <c r="Y73" s="139"/>
+      <c r="Z73" s="139"/>
+      <c r="AA73" s="139"/>
+      <c r="AB73" s="140"/>
       <c r="AC73" s="6"/>
       <c r="AD73" s="7"/>
       <c r="AE73" s="6"/>
@@ -17229,16 +17433,16 @@
       <c r="AH73" s="6"/>
       <c r="AI73" s="5"/>
       <c r="AJ73" s="6"/>
-      <c r="AK73" s="194" t="s">
+      <c r="AK73" s="199" t="s">
         <v>152</v>
       </c>
-      <c r="AL73" s="194"/>
-      <c r="AM73" s="194"/>
-      <c r="AN73" s="194"/>
-      <c r="AO73" s="194"/>
-      <c r="AP73" s="194"/>
-      <c r="AQ73" s="194"/>
-      <c r="AR73" s="194"/>
+      <c r="AL73" s="199"/>
+      <c r="AM73" s="199"/>
+      <c r="AN73" s="199"/>
+      <c r="AO73" s="199"/>
+      <c r="AP73" s="199"/>
+      <c r="AQ73" s="199"/>
+      <c r="AR73" s="199"/>
       <c r="AS73" s="6"/>
       <c r="AT73" s="7"/>
       <c r="AU73" s="7"/>
@@ -17407,17 +17611,17 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="5"/>
       <c r="S76" s="5"/>
-      <c r="T76" s="185" t="s">
+      <c r="T76" s="190" t="s">
         <v>149</v>
       </c>
-      <c r="U76" s="186"/>
-      <c r="V76" s="186"/>
-      <c r="W76" s="186"/>
-      <c r="X76" s="186"/>
-      <c r="Y76" s="186"/>
-      <c r="Z76" s="186"/>
-      <c r="AA76" s="186"/>
-      <c r="AB76" s="187"/>
+      <c r="U76" s="191"/>
+      <c r="V76" s="191"/>
+      <c r="W76" s="191"/>
+      <c r="X76" s="191"/>
+      <c r="Y76" s="191"/>
+      <c r="Z76" s="191"/>
+      <c r="AA76" s="191"/>
+      <c r="AB76" s="192"/>
       <c r="AC76" s="6"/>
       <c r="AD76" s="7"/>
       <c r="AE76" s="6"/>
@@ -17472,17 +17676,17 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="5"/>
       <c r="S77" s="5"/>
-      <c r="T77" s="126" t="s">
+      <c r="T77" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="U77" s="127"/>
-      <c r="V77" s="127"/>
-      <c r="W77" s="127"/>
-      <c r="X77" s="127"/>
-      <c r="Y77" s="127"/>
-      <c r="Z77" s="127"/>
-      <c r="AA77" s="127"/>
-      <c r="AB77" s="128"/>
+      <c r="U77" s="132"/>
+      <c r="V77" s="132"/>
+      <c r="W77" s="132"/>
+      <c r="X77" s="132"/>
+      <c r="Y77" s="132"/>
+      <c r="Z77" s="132"/>
+      <c r="AA77" s="132"/>
+      <c r="AB77" s="133"/>
       <c r="AC77" s="6"/>
       <c r="AD77" s="7"/>
       <c r="AE77" s="6"/>
@@ -17946,11 +18150,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BBDEF5-7748-45F2-BE97-209F57CFDDD5}">
   <dimension ref="D2:W121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R97" sqref="R97"/>
     </sheetView>
   </sheetViews>
@@ -18442,7 +18646,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="4"/>
-      <c r="P35" s="228" t="s">
+      <c r="P35" s="95" t="s">
         <v>196</v>
       </c>
       <c r="Q35" s="3"/>
@@ -18451,7 +18655,7 @@
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="224" t="s">
+      <c r="D36" s="91" t="s">
         <v>184</v>
       </c>
       <c r="E36" s="6"/>
@@ -18485,7 +18689,7 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D38" s="225" t="s">
+      <c r="D38" s="92" t="s">
         <v>185</v>
       </c>
       <c r="E38" s="6"/>
@@ -18513,7 +18717,7 @@
       <c r="T39" s="7"/>
     </row>
     <row r="40" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D40" s="226" t="s">
+      <c r="D40" s="93" t="s">
         <v>186</v>
       </c>
       <c r="E40" s="6"/>
@@ -18547,7 +18751,7 @@
       <c r="T41" s="7"/>
     </row>
     <row r="42" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="227" t="s">
+      <c r="D42" s="94" t="s">
         <v>187</v>
       </c>
       <c r="E42" s="6"/>
@@ -18588,12 +18792,12 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="7"/>
-      <c r="J44" s="217" t="s">
+      <c r="J44" s="222" t="s">
         <v>192</v>
       </c>
-      <c r="K44" s="218"/>
-      <c r="L44" s="218"/>
-      <c r="M44" s="219"/>
+      <c r="K44" s="223"/>
+      <c r="L44" s="223"/>
+      <c r="M44" s="224"/>
       <c r="P44" s="5" t="s">
         <v>188</v>
       </c>
@@ -18622,12 +18826,12 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="7"/>
-      <c r="J46" s="220" t="s">
+      <c r="J46" s="225" t="s">
         <v>193</v>
       </c>
-      <c r="K46" s="221"/>
-      <c r="L46" s="221"/>
-      <c r="M46" s="222"/>
+      <c r="K46" s="226"/>
+      <c r="L46" s="226"/>
+      <c r="M46" s="227"/>
       <c r="P46" s="5" t="s">
         <v>189</v>
       </c>
@@ -18654,12 +18858,12 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="220" t="s">
+      <c r="J48" s="225" t="s">
         <v>194</v>
       </c>
-      <c r="K48" s="221"/>
-      <c r="L48" s="221"/>
-      <c r="M48" s="222"/>
+      <c r="K48" s="226"/>
+      <c r="L48" s="226"/>
+      <c r="M48" s="227"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
@@ -18728,58 +18932,58 @@
     </row>
     <row r="57" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="58" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="220" t="s">
+      <c r="D58" s="225" t="s">
         <v>198</v>
       </c>
-      <c r="E58" s="221"/>
-      <c r="F58" s="222"/>
+      <c r="E58" s="226"/>
+      <c r="F58" s="227"/>
     </row>
     <row r="59" spans="4:20" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D60" s="138" t="s">
+      <c r="D60" s="143" t="s">
         <v>199</v>
       </c>
-      <c r="E60" s="139"/>
-      <c r="F60" s="140"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="145"/>
     </row>
     <row r="61" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D61" s="107"/>
-      <c r="E61" s="108"/>
-      <c r="F61" s="109"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="113"/>
+      <c r="F61" s="114"/>
     </row>
     <row r="62" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D62" s="141"/>
-      <c r="E62" s="142"/>
-      <c r="F62" s="143"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="147"/>
+      <c r="F62" s="148"/>
     </row>
     <row r="63" spans="4:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D63" s="214" t="s">
+      <c r="D63" s="219" t="s">
         <v>200</v>
       </c>
-      <c r="E63" s="215"/>
-      <c r="F63" s="216"/>
+      <c r="E63" s="220"/>
+      <c r="F63" s="221"/>
     </row>
     <row r="64" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D64" s="138" t="s">
+      <c r="D64" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="E64" s="139"/>
-      <c r="F64" s="140"/>
+      <c r="E64" s="144"/>
+      <c r="F64" s="145"/>
     </row>
     <row r="65" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D65" s="107"/>
-      <c r="E65" s="108"/>
-      <c r="F65" s="109"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="114"/>
     </row>
     <row r="66" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D66" s="107"/>
-      <c r="E66" s="108"/>
-      <c r="F66" s="109"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="113"/>
+      <c r="F66" s="114"/>
     </row>
     <row r="67" spans="4:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D67" s="141"/>
-      <c r="E67" s="142"/>
-      <c r="F67" s="143"/>
+      <c r="D67" s="146"/>
+      <c r="E67" s="147"/>
+      <c r="F67" s="148"/>
     </row>
     <row r="71" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E71" t="s">
@@ -18788,92 +18992,92 @@
     </row>
     <row r="72" spans="4:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="73" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="E73" s="138" t="s">
+      <c r="E73" s="143" t="s">
         <v>220</v>
       </c>
-      <c r="F73" s="140"/>
-      <c r="H73" s="213" t="s">
+      <c r="F73" s="145"/>
+      <c r="H73" s="218" t="s">
         <v>221</v>
       </c>
-      <c r="I73" s="140"/>
-      <c r="K73" s="213" t="s">
+      <c r="I73" s="145"/>
+      <c r="K73" s="218" t="s">
         <v>222</v>
       </c>
-      <c r="L73" s="223"/>
-      <c r="M73" s="140"/>
-      <c r="O73" s="213" t="s">
+      <c r="L73" s="228"/>
+      <c r="M73" s="145"/>
+      <c r="O73" s="218" t="s">
         <v>223</v>
       </c>
-      <c r="P73" s="140"/>
-      <c r="R73" s="213" t="s">
+      <c r="P73" s="145"/>
+      <c r="R73" s="218" t="s">
         <v>224</v>
       </c>
-      <c r="S73" s="140"/>
+      <c r="S73" s="145"/>
     </row>
     <row r="74" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="E74" s="107"/>
-      <c r="F74" s="109"/>
-      <c r="H74" s="107"/>
-      <c r="I74" s="109"/>
-      <c r="K74" s="107"/>
-      <c r="L74" s="108"/>
-      <c r="M74" s="109"/>
-      <c r="O74" s="107"/>
-      <c r="P74" s="109"/>
-      <c r="R74" s="107"/>
-      <c r="S74" s="109"/>
+      <c r="E74" s="112"/>
+      <c r="F74" s="114"/>
+      <c r="H74" s="112"/>
+      <c r="I74" s="114"/>
+      <c r="K74" s="112"/>
+      <c r="L74" s="113"/>
+      <c r="M74" s="114"/>
+      <c r="O74" s="112"/>
+      <c r="P74" s="114"/>
+      <c r="R74" s="112"/>
+      <c r="S74" s="114"/>
     </row>
     <row r="75" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="E75" s="107"/>
-      <c r="F75" s="109"/>
-      <c r="H75" s="107"/>
-      <c r="I75" s="109"/>
-      <c r="K75" s="107"/>
-      <c r="L75" s="108"/>
-      <c r="M75" s="109"/>
-      <c r="O75" s="107"/>
-      <c r="P75" s="109"/>
-      <c r="R75" s="107"/>
-      <c r="S75" s="109"/>
+      <c r="E75" s="112"/>
+      <c r="F75" s="114"/>
+      <c r="H75" s="112"/>
+      <c r="I75" s="114"/>
+      <c r="K75" s="112"/>
+      <c r="L75" s="113"/>
+      <c r="M75" s="114"/>
+      <c r="O75" s="112"/>
+      <c r="P75" s="114"/>
+      <c r="R75" s="112"/>
+      <c r="S75" s="114"/>
     </row>
     <row r="76" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="E76" s="107"/>
-      <c r="F76" s="109"/>
-      <c r="H76" s="107"/>
-      <c r="I76" s="109"/>
-      <c r="K76" s="107"/>
-      <c r="L76" s="108"/>
-      <c r="M76" s="109"/>
-      <c r="O76" s="107"/>
-      <c r="P76" s="109"/>
-      <c r="R76" s="107"/>
-      <c r="S76" s="109"/>
+      <c r="E76" s="112"/>
+      <c r="F76" s="114"/>
+      <c r="H76" s="112"/>
+      <c r="I76" s="114"/>
+      <c r="K76" s="112"/>
+      <c r="L76" s="113"/>
+      <c r="M76" s="114"/>
+      <c r="O76" s="112"/>
+      <c r="P76" s="114"/>
+      <c r="R76" s="112"/>
+      <c r="S76" s="114"/>
     </row>
     <row r="77" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="E77" s="107"/>
-      <c r="F77" s="109"/>
-      <c r="H77" s="107"/>
-      <c r="I77" s="109"/>
-      <c r="K77" s="107"/>
-      <c r="L77" s="108"/>
-      <c r="M77" s="109"/>
-      <c r="O77" s="107"/>
-      <c r="P77" s="109"/>
-      <c r="R77" s="107"/>
-      <c r="S77" s="109"/>
+      <c r="E77" s="112"/>
+      <c r="F77" s="114"/>
+      <c r="H77" s="112"/>
+      <c r="I77" s="114"/>
+      <c r="K77" s="112"/>
+      <c r="L77" s="113"/>
+      <c r="M77" s="114"/>
+      <c r="O77" s="112"/>
+      <c r="P77" s="114"/>
+      <c r="R77" s="112"/>
+      <c r="S77" s="114"/>
     </row>
     <row r="78" spans="4:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E78" s="141"/>
-      <c r="F78" s="143"/>
-      <c r="H78" s="141"/>
-      <c r="I78" s="143"/>
-      <c r="K78" s="141"/>
-      <c r="L78" s="142"/>
-      <c r="M78" s="143"/>
-      <c r="O78" s="141"/>
-      <c r="P78" s="143"/>
-      <c r="R78" s="141"/>
-      <c r="S78" s="143"/>
+      <c r="E78" s="146"/>
+      <c r="F78" s="148"/>
+      <c r="H78" s="146"/>
+      <c r="I78" s="148"/>
+      <c r="K78" s="146"/>
+      <c r="L78" s="147"/>
+      <c r="M78" s="148"/>
+      <c r="O78" s="146"/>
+      <c r="P78" s="148"/>
+      <c r="R78" s="146"/>
+      <c r="S78" s="148"/>
     </row>
     <row r="85" spans="8:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="86" spans="8:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -19047,87 +19251,87 @@
     </row>
     <row r="104" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="105" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F105" s="213" t="s">
+      <c r="F105" s="218" t="s">
         <v>236</v>
       </c>
-      <c r="G105" s="139"/>
-      <c r="H105" s="140"/>
-      <c r="J105" s="213" t="s">
+      <c r="G105" s="144"/>
+      <c r="H105" s="145"/>
+      <c r="J105" s="218" t="s">
         <v>235</v>
       </c>
-      <c r="K105" s="139"/>
-      <c r="L105" s="140"/>
-      <c r="N105" s="213" t="s">
+      <c r="K105" s="144"/>
+      <c r="L105" s="145"/>
+      <c r="N105" s="218" t="s">
         <v>237</v>
       </c>
-      <c r="O105" s="139"/>
-      <c r="P105" s="140"/>
+      <c r="O105" s="144"/>
+      <c r="P105" s="145"/>
     </row>
     <row r="106" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F106" s="107"/>
-      <c r="G106" s="108"/>
-      <c r="H106" s="109"/>
-      <c r="J106" s="107"/>
-      <c r="K106" s="108"/>
-      <c r="L106" s="109"/>
-      <c r="N106" s="107"/>
-      <c r="O106" s="108"/>
-      <c r="P106" s="109"/>
+      <c r="F106" s="112"/>
+      <c r="G106" s="113"/>
+      <c r="H106" s="114"/>
+      <c r="J106" s="112"/>
+      <c r="K106" s="113"/>
+      <c r="L106" s="114"/>
+      <c r="N106" s="112"/>
+      <c r="O106" s="113"/>
+      <c r="P106" s="114"/>
     </row>
     <row r="107" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F107" s="107"/>
-      <c r="G107" s="108"/>
-      <c r="H107" s="109"/>
-      <c r="J107" s="107"/>
-      <c r="K107" s="108"/>
-      <c r="L107" s="109"/>
-      <c r="N107" s="107"/>
-      <c r="O107" s="108"/>
-      <c r="P107" s="109"/>
+      <c r="F107" s="112"/>
+      <c r="G107" s="113"/>
+      <c r="H107" s="114"/>
+      <c r="J107" s="112"/>
+      <c r="K107" s="113"/>
+      <c r="L107" s="114"/>
+      <c r="N107" s="112"/>
+      <c r="O107" s="113"/>
+      <c r="P107" s="114"/>
     </row>
     <row r="108" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F108" s="107"/>
-      <c r="G108" s="108"/>
-      <c r="H108" s="109"/>
-      <c r="J108" s="107"/>
-      <c r="K108" s="108"/>
-      <c r="L108" s="109"/>
-      <c r="N108" s="107"/>
-      <c r="O108" s="108"/>
-      <c r="P108" s="109"/>
+      <c r="F108" s="112"/>
+      <c r="G108" s="113"/>
+      <c r="H108" s="114"/>
+      <c r="J108" s="112"/>
+      <c r="K108" s="113"/>
+      <c r="L108" s="114"/>
+      <c r="N108" s="112"/>
+      <c r="O108" s="113"/>
+      <c r="P108" s="114"/>
     </row>
     <row r="109" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F109" s="107"/>
-      <c r="G109" s="108"/>
-      <c r="H109" s="109"/>
-      <c r="J109" s="107"/>
-      <c r="K109" s="108"/>
-      <c r="L109" s="109"/>
-      <c r="N109" s="107"/>
-      <c r="O109" s="108"/>
-      <c r="P109" s="109"/>
+      <c r="F109" s="112"/>
+      <c r="G109" s="113"/>
+      <c r="H109" s="114"/>
+      <c r="J109" s="112"/>
+      <c r="K109" s="113"/>
+      <c r="L109" s="114"/>
+      <c r="N109" s="112"/>
+      <c r="O109" s="113"/>
+      <c r="P109" s="114"/>
     </row>
     <row r="110" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F110" s="107"/>
-      <c r="G110" s="108"/>
-      <c r="H110" s="109"/>
-      <c r="J110" s="107"/>
-      <c r="K110" s="108"/>
-      <c r="L110" s="109"/>
-      <c r="N110" s="107"/>
-      <c r="O110" s="108"/>
-      <c r="P110" s="109"/>
+      <c r="F110" s="112"/>
+      <c r="G110" s="113"/>
+      <c r="H110" s="114"/>
+      <c r="J110" s="112"/>
+      <c r="K110" s="113"/>
+      <c r="L110" s="114"/>
+      <c r="N110" s="112"/>
+      <c r="O110" s="113"/>
+      <c r="P110" s="114"/>
     </row>
     <row r="111" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F111" s="141"/>
-      <c r="G111" s="142"/>
-      <c r="H111" s="143"/>
-      <c r="J111" s="141"/>
-      <c r="K111" s="142"/>
-      <c r="L111" s="143"/>
-      <c r="N111" s="141"/>
-      <c r="O111" s="142"/>
-      <c r="P111" s="143"/>
+      <c r="F111" s="146"/>
+      <c r="G111" s="147"/>
+      <c r="H111" s="148"/>
+      <c r="J111" s="146"/>
+      <c r="K111" s="147"/>
+      <c r="L111" s="148"/>
+      <c r="N111" s="146"/>
+      <c r="O111" s="147"/>
+      <c r="P111" s="148"/>
     </row>
     <row r="117" spans="9:14" x14ac:dyDescent="0.3">
       <c r="K117" t="s">
